--- a/output/Total_time_range_data/黑龙江省/牡丹江市_学习考察.xlsx
+++ b/output/Total_time_range_data/黑龙江省/牡丹江市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,990 +436,1085 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>65</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>我省党政代表团赴辽宁学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-11-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/202311/c03_840976.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['我省党政代表团赴辽宁学习考察 强化区域协同共担责任使命 奋力谱写新时代东北全面振兴新篇章 两省召开工作交流座谈会 许勤郝鹏讲话 梁惠玲李乐成分别介绍情况 周波出席 11月25日，我省党政代表团赴辽宁学习考察，两省在沈阳举行工作交流座谈会，共同学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，加强区域协同、深化务实合作，奋力谱写新时代东北地区高质量发展、可持续振兴新篇章。省委书记、省人大常委会主任许勤出席座谈会并讲话，辽宁省委书记、省人大常委会主任郝鹏主持座谈会并讲话。省委副书记、省长梁惠玲，辽宁省委副书记、省长李乐成分别介绍两省经济社会发展情况。辽宁省政协主席周波出席。 两省在沈阳举行工作交流座谈会 许勤代表省委、省政府对辽宁长期以来给予黑龙江振兴发展的关心支持表示感谢。他说，辽宁省委、省政府全面贯彻落实习近平总书记重要讲话重要指示精神，深入实施全面振兴新突破三年行动，着力打造4个万亿级产业基地、22个重点产业集群，以超常规举措打好新时代东北振兴、辽宁振兴的“辽沈战役”，推动振兴发展不断取得新突破，我们对辽宁取得的突出成就由衷祝贺。辽黑两省历史文化同源、发展历程相近，同为国家重要老工业基地，都拥有一批“国之重器”、都曾创造出诸多共和国第一。新时代新征程上，两省共同担负着维护国家“五大安全”、推动东北全面振兴的重大政治任务，我们与辽宁携手同行，全面贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，抢抓机遇、感恩奋进，把总书记擘画的宏伟蓝图变为美好现实。深化战略对接，携手服务国家大局，推动黑龙江建好建强“三基地、一屏障、一高地”与辽宁打造新时代“六地”目标相衔接，全面提升维护国家“五大安全”能力，形成对国家重大战略的坚强支撑。深化优势互补，共同推进高质量发展，加强产业、科技、开放、旅游等领域务实合作，推进沈大与哈大齐自主创新示范区强强联合，沿边开放与沿海开放联通互动，筹办亚冬会与冬运会互鉴互促，释放合作共赢的叠加效应，为可持续振兴增添新动能。深化区域协同，完善交流合作机制，打造常态化、多层次交流合作平台，加强政府、高校、院所、企业协同协作，密切人文领域交流交往，续写江海情谊，唱响“东北一家人、东北一家亲”，以高质量区域协作推动东北全面振兴不断取得新突破。 郝鹏代表省委、省政府对黑龙江省党政代表团来辽宁考察表示欢迎，对黑龙江长期以来给予辽宁振兴发展的支持和帮助表示感谢。他说，今年以来，黑龙江深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，加快建设“六个龙江”、推动“八个振兴”，建好建强“三基地、一屏障、一高地”，展现出振兴发展的良好态势，成绩令人振奋，好经验好做法值得我们认真学习借鉴。当前，辽宁正全力实施全面振兴新突破三年行动，一手抓高质量发展、一手抓全面从严治党，紧扣打造新时代“六地”目标定位，奋力谱写中国式现代化辽宁新篇章。维护好国家“五大安全”、推动新时代东北全面振兴，是总书记赋予两省共同的政治责任；深化互学互促、对接合作，是贯彻落实总书记重要讲话精神的务实之举。自今年5月，辽宁省党政代表团赴黑龙江学习考察以来，双方在产业、科技、人文、交通基础设施等多个领域务实合作取得新进展。我们愿与黑龙江一道，在前期合作成果的基础上，继续加强产业发展合作，推动辽宁4个万亿级产业基地、22个重点产业集群与黑龙江“4567”现代产业体系联动发展，共同提升产业链供应链韧性和安全水平；加力推动科技创新协同，打通产学研用合作链条，共同服务国家高水平科技自立自强；共同提升对内对外开放水平，深化港口、口岸合作，推动东北海陆大通道上升为国家战略，更好服务和融入新发展格局；共同发展冰雪经济，联合开发冰雪旅游线路，合力推进文体旅融合发展；建立完善常态化交流合作机制，厚植兄弟省份情谊，推动实现更深层次区域协同，奋力谱写深化交流合作崭新篇章，携手走出一条高质量发展、可持续振兴的新路子。 我省党政代表团在沈阳拓荆科技股份有限公司考察 我省党政代表团在沈阳国际软件园考察 在辽宁期间，我省党政代表团考察了沈阳拓荆科技股份有限公司、沈阳国际软件园、新松机器人自动化股份有限公司、航空工业沈阳飞机工业（集团）有限公司。 我省党政代表团在新松机器人自动化股份有限公司考察 我省党政代表团在航空工业沈阳飞机工业（集团）有限公司考察 省领导张安顺、徐建国、杨博、于洪涛、贾玉梅、余建、王合生、张亚中；辽宁省及沈阳市、大连市领导王新伟、王健、胡立杰、蒋天宝、姜有为、陈绿平、王利波、陈绍旺参加有关活动。 各市（地）和省直有关部门负责同志参加上述活动。（记者 曹忠义 摄影 郭俊峰）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>65</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>绥化市政协到我市围绕红色基因传承开展学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100055/202310/c03_843695.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['考察组由绥化市政协副主席、党组成员陈岩带队，市政协副主席、党组副书记吴庆兰，市政协副主席、市工商联主席王伟华，市政协副主席、民革牡丹江市委主委徐海鸥，市退役军人事务局党组书记、局长崔刚等陪同考察。', '考察组一行先后参观了市博物馆和烈士纪念馆，和“八女投江”群雕，现场追溯了以东北抗联、八女英烈为代表的革命先辈浴血奋战的英雄事迹，并实地了解了“红色基因传承”建设工作。考察中，考察组与我市相关部门负责同志围绕牡丹江红色文化产业发展和红色文化保护传承等问题进行了深入交流，并对我市浓厚的“红色基因传承”氛围给予了高度评价。', '调研组表示，红色文化承担着加强革命传统教育、增强群众爱国情感、培育民族精神等重要功能。牡丹江市聚焦红色文化保护、红色资源挖掘、红色品牌创造等目标，成功打造了一批批特色鲜明的红色文化阵地，通过把红色资源挖掘好、保护好、传承好，打造永不褪色的地域红色文化“名片”，让红色基因薪火相传。政协队伍要发挥联系广泛、智力密集优势，建立机制为红色文化项目服务好，群策群力推介更多高品质红色文化产品，为城市红色文旅发展建言献策，为城市红色文化保护传承贡献政协力量。', '市退役军人事务局党组书记、局长崔刚表示，市退役军人事务局自成立以来，严格按照党中央、省厅和市委市政府把“红色资源利用好、红色传统发扬好、红色基因传承好”的总要求，着力打造牡丹江红色基因传承基地品牌，不断挖掘、整理、提炼红色资源，并赋予其新的时代内涵。每年通过开展“清明祭英烈”“9.30烈士公祭仪式”等宣传教育活动，持续打造尊崇尊重、烈士褒扬氛围高地，全方位激发广大干部群众对英烈精神的崇尚、守望和传承，为实现牡丹江市全面振兴全方位振兴提供强大的精神动力。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>65</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>我省党政代表团赴吉林学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-11-25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/202311/c03_840975.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['我省党政代表团赴吉林学习考察 沿着习近平总书记指引的方向奋勇前进 携手开创高质量发展可持续振兴新局面 两省召开工作交流座谈会 许勤景俊海讲话 梁惠玲胡玉亭分别介绍情况 11月24日，我省党政代表团赴吉林学习考察，两省在长春举行工作交流座谈会，深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，深化交流合作，共谋发展大计，携手开创两省高质量发展、可持续振兴新局面。省委书记、省人大常委会主任许勤出席座谈会并讲话，吉林省委书记、省人大常委会主任景俊海主持座谈会并讲话。省委副书记、省长梁惠玲，吉林省委副书记、省长胡玉亭分别介绍两省经济社会发展情况。 两省在长春举行工作交流座谈会 许勤代表省委、省政府对吉林长期以来给予黑龙江的支持帮助表示感谢。他说，近年来，吉林深入贯彻落实习近平总书记视察吉林重要讲话重要指示精神，坚决扛起“新担当、新突破、新作为”重大政治责任，深入实施“一主六双”高质量发展战略，着力培育“四大集群”、发展“六新产业”、建设“四新设施”，成就令人鼓舞，经验值得学习。吉黑一家人，两省一家亲，新征程上，我们共同贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话和党中央决策部署，坚持战略定位，完善协同机制，深化区域合作，完整准确全面贯彻新发展理念，积极服务和融入构建新发展格局，坚决维护国家“五大安全”，努力走出一条高质量发展、可持续振兴新路子。加强产业融合对接，共同推动产业链供应链配套衔接，构建具有东北特色优势的现代化产业体系；促进科技资源共享，共同加强关键核心技术攻关、创新成果双向转化，更好服务国家高水平科技自立自强；深化农业领域协作，共同抓好黑土地保护、种业创新、产能提升，当好国家粮食稳产保供“压舱石”；合力扩大对外开放，共同推进口岸通道建设，共享共用开放平台，加快构筑我国向北开放新高地；增强文化旅游互动，共同开发推介精品旅游线路，推动冰雪经济全产业链发展，让绿水青山、冰天雪地更好转化为金山银山。黑龙江与吉林共担使命、携手奋进，把习近平总书记擘画的宏伟蓝图变为美好现实，为强国建设、民族复兴贡献力量。 景俊海代表吉林省委、省政府，对黑龙江省党政代表团到访表示热烈欢迎，对黑龙江省长期以来给予吉林省的支持帮助表示衷心感谢。他说，黑龙江与吉林是山水相连、人缘相亲的好邻居、好兄弟。近年来，黑龙江坚持以习近平新时代中国特色社会主义思想为指引，加快建设“六个龙江”、推进“八个振兴”，推动新时代龙江全面振兴取得扎实成效。这些成绩让我们由衷钦佩，好经验好做法值得我们认真学习借鉴。习近平总书记新时代以来十次视察东北，三次亲自主持召开座谈会，特别是今年接连主持召开新时代推动东北全面振兴座谈会和中共中央政治局会议，充分体现了对新时代推动东北全面振兴的战略考量和深邃思考、对东北干部群众的亲切关怀和深情厚意，广大党员干部群众无限感恩总书记、无比感谢党中央。推动东北全面振兴，吉黑两省承载着共同的职责使命，面临着共同的机遇优势，肩负着共同的目标任务。我们愿与黑龙江一道深入贯彻习近平总书记重要讲话精神，牢记嘱托、踔厉奋发，携手并肩、同心同向，把对习近平总书记的无限感恩转化为推动振兴发展的实际行动，坚决扛稳在维护国家“五大安全”中的重大使命，扎实完成好“五项重点任务”，聚焦服务和融入新发展格局，建立完善全方位、多层次、常态化合作交流机制，全面加强产业合作，共同实施好国企振兴专项行动，加快哈长城市群建设，联合开发冰雪和避暑休闲生态旅游资源，携手走出高质量发展、可持续振兴新路，齐心协力推动新时代东北全面振兴取得新突破。 我省党政代表团在中国科学院东北地理与农业生态研究所考察 我省党政代表团在中国科学院长春光学精密机械与物理研究所考察 我省党政代表团在中国第一汽车集团有限公司考察 我省党政代表团在长春生物制品研究所有限责任公司考察 在吉林期间，我省党政代表团考察了中国科学院东北地理与农业生态研究所、中国科学院长春光学精密机械与物理研究所、中国第一汽车集团有限公司、长春生物制品研究所有限责任公司。 省领导张安顺、徐建国、杨博、于洪涛、贾玉梅、余建、王合生、张亚中；吉林省领导张恩惠、李伟、王秋实、高广滨、李国强、梁仁哲、吴靖平参加有关活动。 各市（地）和省直有关部门负责同志参加上述活动。（记者 曹忠义 摄影 郭俊峰）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>65</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>学习之路习近平在江西考察时强调解放思想开拓进取扬长补短固本兴新奋力谱写中国式现代化江西篇章</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202310/c03_844904.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在江西考察时强调 解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章_牡丹江市人民政府', '【学习之路】习近平在江西考察时强调 解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章', '新华社南昌10月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在江西考察时强调，要紧紧围绕新时代新征程党的中心任务，完整准确全面贯彻新发展理念，牢牢把握江西在构建新发展格局中的定位，立足江西的特色和优势，着眼高质量发展、绿色发展、低碳发展等新要求，解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。', '10月10日至13日，习近平在江西省委书记尹弘和省长叶建春陪同下，先后来到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等进行调研。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在长江国家文化公园九江城区段考察时，冒雨沿江堤步行察看沿岸风貌。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在长江国家文化公园九江城区段考察。新华社记者 鞠鹏 摄', '10日下午，习近平来到九江市考察调研。在长江国家文化公园九江城区段，习近平登上琵琶亭远眺长江，冒雨沿江堤步行察看沿岸风貌，仔细询问长江水位、水质、航运、防洪、禁渔等情况，听取当地崩岸治理、航道疏浚、岸线生态修复等工作进展介绍。习近平指出，长江是长江经济带的纽带。无论未来长江经济带怎么发展、发展到哪个阶段，都不可能离开长江的哺育。要从人与自然和谐共生的生命共同体出发，着眼中华民族永续发展，把长江保护好。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在中国石化九江分公司检验计量中心实验室考察。新华社记者 鞠鹏 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在中国石化九江分公司检验计量中心实验室考察。新华社记者 谢环驰 摄', '习近平随后乘车来到中国石化九江分公司。他走进公司生产管控中心控制大厅和检验计量中心实验室，详细了解企业转型升级打造绿色智能工厂、推动节能减污降碳等情况，对企业开展科学检测、严格排放标准等做法表示肯定。习近平强调，破解“化工围江”，是推进长江生态环境治理的重点。要再接再厉，坚持源头管控、全过程减污降碳，大力推进数智化改造、绿色化转型，打造世界领先的绿色智能炼化企业。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在中国石化九江分公司考察时，同企业员工亲切交流。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在中国石化九江分公司考察时，同企业员工亲切交流。新华社记者 燕雁 摄', '实验室外，企业员工们围拢过来纷纷向总书记问好。习近平亲切地对大家说，石化产业是国民经济的重要支柱产业，希望你们按照党中央对新型工业化的部署要求，坚持绿色、智能方向，扎扎实实、奋发进取，为保障国家能源安全、推动石化工业高质量发展作出新贡献。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区南麓遗址考察。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区明清窑作群考察。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区考察时，同非遗传承人亲切交流。新华社记者 刘彬 摄', '11日上午，习近平来到景德镇市考察调研。在陶阳里历史文化街区，习近平先后走进南麓遗址、陶瓷博物馆、明清窑作群，饶有兴趣地了解制瓷技艺流程、陶瓷文化传承创新和对外交流等情况，同非遗传承人亲切交流，不时赞赏他们的手上功夫和工匠精神，鼓励他们秉持艺术至上，专心致志传承创新。习近平指出，中华优秀传统文化自古至今从未断流，陶瓷是中华瑰宝，是中华文明的重要名片。陶阳里历史文化街区严格遵循保护第一、修旧如旧的要求，实现了陶瓷文化保护与文旅产业发展的良性互动。要集聚各方面人才，加强创意设计和研发创新，进一步把陶瓷产业做大做强，把“千年瓷都”这张亮丽的名片擦得更亮。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区考察时，同非遗传承人等亲切交流。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市昌河飞机工业（集团）有限公司考察。新华社记者 燕雁 摄', '随后，习近平来到昌河飞机工业（集团）有限公司，考察了直升飞机总装车间和试飞站，详细了解企业推进技术创新和产品迭代升级的情况。他指出，航空装备是我国制造业发展的一个重点。要坚持创新驱动，在关键核心技术自主研发上下更大功夫，面向未来需求出新品，努力构建先进制造体系、打造世界一流直升机企业。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察时，了解饶河源国家湿地公园和极度濒危鸟类蓝冠噪鹛保护等情况。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察。新华社记者 谢环驰 摄', '11日下午，习近平来到上饶市婺源县秋口镇王村石门自然村。这里是饶河源国家湿地公园的中心区，也是极度濒危鸟类蓝冠噪鹛自然保护小区，植被多样、生态良好。习近平详细了解湿地公园和蓝冠噪鹛保护等情况。村广场上正在“晒秋”，一排排晒盘盛满红豆、玉米、辣椒等，格外喜人。美术学院师生正在采风写生，习近平驻足观看，同他们亲切交流，鼓励他们打好扎实基本功。得知当地发展特色旅游、茶产业，推进乡村振兴成效显著，习近平十分高兴。他指出，优美的自然环境本身就是乡村振兴的优质资源，要找到实现生态价值转换的有效途径，让群众得到实实在在的好处。乡村要振兴，关键是把基层党组织建好、建强。基层党组织要成为群众致富的领路人，确保党的惠民政策落地见效，真正成为战斗堡垒。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察时，同村民们亲切交流。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察时，同村民们亲切交流。新华社记者 刘彬 摄', '离开村子时，村民们热情欢送总书记。习近平亲切地说，中国式现代化既要有城市的现代化，又要有农业农村现代化，我很关注乡村振兴。希望你们保护好自然生态，把传统村落风貌和现代元素结合起来，坚持中华民族的审美情趣，把乡村建设得更美丽，让日子越过越开心、越幸福！', '13日上午，习近平听取江西省委和省政府工作汇报，对江西各项工作取得的成绩给予肯定。', '习近平指出，构建现代化产业体系，既要有雄心壮志，积极抢位发展，又要立足实际，善于错位发展。要找准定位、明确方向，整合资源、精准发力，加快传统产业改造升级，加快战略性新兴产业发展壮大，积极部署未来产业，努力构建体现江西特色和优势的现代化产业体系。有针对性地部署创新链，积极对接国家战略科技资源，突破一批关键核心技术，打造一批高新技术产业，形成在全国有影响力的产业集群。积极推进数字经济和实体经济融合，发展壮大数字经济。坚定不移走生态优先、绿色发展之路，推动全面绿色转型，打造生态文明建设高地。', '习近平强调，江西联通东西、承接南北、通江达海，多个国家重大战略叠加。要深化对内对外开放，以开放促发展，打造内陆地区改革开放高地，主动服务和融入新发展格局。大力发展口岸经济，建设长江经济带重要节点城市，打造区域性物流枢纽和商贸中心。做大做强都市圈，主动对接和服务长三角一体化发展、粤港澳大湾区建设，增强对资金、技术、人才等的吸引力。发挥生态优势和传统农业优势，打造区域性优质农副产品生产和供应基地。巩固传统商路，积极开拓新路，深度融入共建“一带一路”。深化重点领域改革，加强营商环境建设，稳步扩大规则、规制、管理、标准等制度型开放。有序扩大民间投资市场准入，推进促进公平竞争的政策实施，构建亲清统一的新型政商关系，促进民营经济健康发展。', '习近平指出，要坚持农业农村优先发展，加快农业农村现代化建设步伐，牢牢守住粮食安全底线，推进农业产业化，推动农村一二三产业融合发展，全面推进乡村振兴。坚持产业兴农、质量兴农、绿色兴农，把农业建设成为大产业，加快建设农业强省。发展林下经济，开发森林食品，培育生态旅游、森林康养等新业态。巩固拓展脱贫攻坚成果，要更多依靠产业发展，不断增强内生发展动力。围绕农村产业发展、公共服务、环境整治、乡风建设，循序渐进、久久为功，抓好办成一批实事，让群众看到新变化。', '习近平强调，确保老区人民共享改革发展成果，过上幸福生活，是推进全体人民共同富裕的底线任务。要强化就业优先政策，着力稳岗扩岗，切实做好重点群体就业工作。加强基础性、普惠性、兜底性民生建设，完善社会保障体系，健全社会救助和慈善制度，提高基本公共教育服务水平，强化城乡卫生健康服务能力，加强对防止返贫监测对象、零就业家庭等困难群体的帮扶。', '习近平指出，要总结运用第一批主题教育的成功经验，高质量开展第二批主题教育，用井冈山精神、苏区精神、长征精神砥砺党员、干部，教育引导党员、干部坚定理想信念、牢记初心使命、积极开拓进取、勇于担当作为。要把实的要求贯穿主题教育全过程，坚决防止和克服形式主义、官僚主义，实实在在抓好理论学习和调查研究，实实在在检视整改突出问题，实实在在办好惠民利民实事，用实干推动发展、取信于民。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第八巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>65</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>学习之路习近平在北京河北考察灾后恢复重建工作时强调再接再厉抓好灾后恢复重建确保广大人民群众安居乐业温暖过冬</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202311/c03_844908.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在北京河北考察灾后恢复重建工作时强调 再接再厉抓好灾后恢复重建 确保广大人民群众安居乐业温暖过冬_牡丹江市人民政府', '【学习之路】习近平在北京河北考察灾后恢复重建工作时强调 再接再厉抓好灾后恢复重建 确保广大人民群众安居乐业温暖过冬', '新华社北京/河北保定11月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在北京、河北考察灾后恢复重建工作时强调，各级党委和政府、各有关方面要认真贯彻落实党中央决策部署，再接再厉抓好灾后恢复重建，确保广大人民群众安居乐业、温暖过冬。要始终坚持以人民为中心，坚持系统观念，坚持求真务实、科学规划、合理布局，抓紧补短板、强弱项，加快完善防洪工程体系、应急管理体系，不断提升防灾减灾救灾能力。', '今年7月底8月初，华北、黄淮等地出现极端降雨，引发洪涝和地质灾害，造成北京、河北等地重大人员伤亡。习近平一直牵挂着受灾群众，高度重视防汛抗洪救灾和灾后恢复重建工作，多次作出重要指示批示，要求有关地方和部门全力保障人民群众生命财产安全，尽快恢复灾区正常生产生活秩序。9月上旬，习近平前往黑龙江尚志市看望慰问受灾群众。北方入冬之际，习近平又来到北京、河北受灾较重的相关地区，看望慰问受灾群众，检查指导灾后恢复重建工作。', '11月10日，习近平在中共中央政治局委员、北京市委书记尹力和市长殷勇，河北省委书记倪岳峰和省长王正谱分别陪同下，先后来到门头沟、保定等地，实地了解灾后恢复重建情况。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟永定河三家店引水枢纽考察。新华社记者 燕雁 摄', '永定河三家店引水枢纽是永定河官厅山峡段控制性工程。10日上午，习近平来到这里，听取北京市水系、永定河修复治理、拦河闸运行等情况汇报，了解灾后恢复重建进展。习近平指出，门头沟、房山等山区地带山高谷深，连续强降雨容易造成特大山洪，是北京防汛抗洪的重点区域。既要建好用好水库等控制性工程，也要完善山区道路、房屋等建筑物的防洪标准，切实提高防汛抗洪能力。要立足北京水系特点、总结历史经验，针对突出问题和薄弱环节，按照“上蓄、中疏、下排、有效治洪”的原则，抓紧修复水毁设施，加强重点水利工程建设，为保障首都防洪安全提供有力支撑。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，同师生们亲切交流。新华社发（盛佳鹏摄）', '随后，习近平乘车来到妙峰山民族学校。今年汛期，这里作为临时避灾场所和防汛抗洪救灾人员驻地。习近平走进一间教室，孩子们正在老师的带领下开主题班会。大家争着向习爷爷展示自己以抗洪救灾为主题的手工制品，并汇报自己在洪灾面前的经历和感受，习近平听后很高兴。他说，保证受灾学生都能按时开学返校，是党中央对灾后恢复重建提出的明确要求。经过各方面共同努力，所有灾区学校都按时开学了，看到孩子们幸福的笑容，很踏实很欣慰。你们学校在这次防汛抗洪中成功避险，而且很好发挥了“安全岛”作用，要用好这一生动教材，开展安全教育，提升孩子们的安全意识和避险能力。这次抗洪救灾孩子们会终生难忘，要让他们学会感恩、立下志向，做社会主义事业的建设者和接班人。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。新华社记者 鞠鹏 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属。新华社记者 鞠鹏 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。新华社记者 燕雁 摄', '学校操场上，习近平亲切慰问了因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。习近平说，在这场抗洪抢险救灾斗争中，基层党员干部冲锋在前、勇于担当，人民解放军、武警部队官兵、消防救援队伍指战员挺身而出、向险前行，国有企业职工闻“汛”而动、紧急驰援，社会各界和志愿者积极参与、奉献爱心，书写了洪水无情人有情的人间大爱，展现了社会主义制度一方有难、八方支援的显著优势和全国人民万众一心、同舟共济的奋斗精神，涌现出许多感人故事。多名党员干部在抗洪抢险中牺牲，我们要永远怀念他们，大力宣扬他们的英勇事迹，有关方面要关心照顾好他们的家人。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 岳月伟 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 燕雁 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 鞠鹏 摄', '临近中午，习近平来到妙峰山镇水峪嘴村考察。在村口河边平台，习近平听取该村情况介绍，随后步行察看村容村貌，了解基础设施恢复建设提升等情况。习近平指出，大涝大灾之后，务必大建大治，大幅度提高水利设施、防汛设施水平。要坚持以人民为中心，着眼长远、科学规划，把恢复重建与推动高质量发展、推进韧性城市建设、推进乡村振兴、推进生态文明建设等紧密结合起来，有针对性地采取措施，全面提升防灾减灾救灾能力。特别要完善城乡基层应急管理组织体系，提升基层防灾避险和自救互救能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村村民李盟家看望慰问，了解房屋受损、修缮和冬季取暖等情况。新华社记者 燕雁 摄', '在村民李盟家，习近平详细询问房屋受损、修缮支出、取暖等情况。习近平表示，确保受灾群众安全温暖过冬是一项硬任务。北方冬季长，山里冬天尤其冷，取暖工作务必落实落细，做到每家每户。对已经完成房屋修缮加固或重建、具备入住条件的受灾户，要指导帮助他们落实冬季取暖。对尚未完成房屋重建的受灾户，要通过投亲靠友、租房、政府安置等方式，确保他们温暖过冬。', '离开村子时，当地群众热情欢送总书记。习近平对大家说，我心里一直惦念着灾区的人民群众。共产党是为人民服务的党，永远把老百姓放在心中最高位置，无论是抢险救灾还是灾后恢复重建，都会全力以赴。希望乡亲们坚定信心，努力把家园建设得更加美好。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区门口药店，了解经营恢复情况。新华社记者 王晔 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区门口超市，了解经营恢复情况。新华社记者 王晔 摄', '今年汛期，保定涿州市遭遇特大洪涝灾害，目前已基本恢复正常生产生活秩序。10日下午，习近平来到双塔街道永济秀园小区。他首先走进小区门口的药店、超市，向商户详细询问经营恢复情况，接着来到小区热力站，了解供暖设施运行情况。习近平表示，经历这场大灾，居民和一些生产经营单位损失不少，各级党委和政府要多措并举，努力帮助受灾群众和企业、商户渡过难关。城市恢复重建要做好防灾减灾论证规划，充分考虑避险避灾，留出行洪通道和泄洪区、滞洪区，更新排水管网等基础设施，提升城市运行保障能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区居民董彩英家看望慰问。新华社记者 鞠鹏 摄', '习近平走进居民董彩英家看望慰问，详细询问洪水水位、应急居住、家具家电更新、供暖、相关补助等情况。董彩英告诉总书记，在党员干部帮助下，房子已完成清理修缮并入住，温暖过冬没问题。习近平强调，城市灾后恢复重建，首要的是家家户户生活和社区居住环境的恢复。要查漏补缺，把工作进一步做细做实，基层组织、党员干部、街坊邻里、各方面专业力量和志愿者要一起努力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区考察时，同小区居民们亲切交流。新华社记者 殷博古 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区考察时，同小区居民们亲切交流。新华社发（盛佳鹏摄）', '离开小区时，习近平同小区居民亲切交流。习近平对大家说，涿州的这次灾情很重，那时我每天都关注着你们这里的情况，很是挂念大家。今天看到市政公共服务设施已恢复正常运转，大家的生活也已基本恢复正常，心里踏实了很多。风雨之后见彩虹。在党中央坚强领导下，只要大家齐心协力，就一定能够过上更加美好的生活。第二批主题教育正在深入开展，灾区各级党组织要把主题教育与灾后恢复重建紧密结合起来，大力弘扬抗洪救灾精神，充分发挥基层党组织战斗堡垒作用和党员干部先锋模范作用，用恢复重建成果和人民群众满意度来检验主题教育的成效。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村房屋重建施工现场考察。新华社记者 鞠鹏 摄', '刁窝镇万全庄村位于兰沟洼蓄滞洪区，今年汛期全村311户全部受灾。习近平仔细察看村道、房屋等恢复重建情况。他走进房屋重建施工现场，询问受灾损失、施工进展、租房过渡等情况，勉励他们团结一心，共渡难关，重建和美乡村。', '村民杨佩然家房屋受损较轻，已加固修缮完成并入住。习近平走进杨佩然家里，了解他们的家庭收入、修缮花销、生产恢复等情况。习近平指出，房屋修缮加固重建，是灾后恢复重建的头等大事。现在看，修缮、加固的任务已基本完成，任务最重、难度最大的还是重建。对重建户，各级党委和政府要格外关心，过渡期有特殊困难、自身无法解决居住问题的，要给予适当安置。要采取切实有效措施，防止因灾返贫。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村考察时，同村民们亲切交流。新华社记者 丁海涛 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村考察时，同村民们亲切交流。新华社发（盛佳鹏摄）', '临别时，村民们高声向总书记问好。习近平对大家说，面对历史罕见的洪灾，乡亲们遭受了很大的损失，我向大家表示慰问！各级党委和政府正在多方采取措施，扎实推进灾后恢复重建。希望乡亲们自力更生、艰苦奋斗，用自己的勤劳双手，加快恢复重建、推进乡村振兴。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看冬小麦长势。新华社记者 王晔 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看大白菜长势。新华社发（盛佳鹏摄）', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看大白菜长势。新华社记者 鞠鹏 摄', '习近平还走进村边农田，察看冬小麦和大白菜长势。他指出，农业生产是灾后恢复重建的重要方面，不仅直接关系家家户户的收入，也关系国家粮食安全。要继续抓紧修复灾毁农田和农业设施，加大农资供应保障力度，加强农技指导，组织安排好今冬明春的农业生产，争取明年有个好收成。', '白沟河是大清河流域一条骨干行洪河道。习近平来到白沟河治理工程（涿州段），察看工程进展，听取河北省灾后重建重大水利工程情况汇报。习近平指出，京津冀水系相连，防汛抗洪是一盘棋，要深入研究推进京津冀地区防洪工程体系建设。坚持系统观念，统筹流域和区域，处理好上下游、左右岸、干支流关系，科学布局水库、河道、堤防、蓄滞洪区等的功能建设，整体提高京津冀地区的防洪能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社记者 王晔 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社记者 岳月伟 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社发（盛佳鹏摄）', '堤坝上，习近平亲切看望慰问水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表。他说，这次抗洪救灾，各方面力量与广大人民群众风雨同舟，共同构筑起防汛救灾、守护家园的坚固防线，充分展现了我们党和国家的强大政治优势。人民群众感谢你们，党和政府感谢你们！', '返回北京前，习近平对陪同人员和当地干部说，在党中央的正确决策部署下，各级各方面采取有力有效措施，把百年一遇的洪涝灾害损失降到了最低。灾后恢复重建涉及范围广，工程项目多，资金投入大。最近中央决定增发1万亿元国债，用于支持灾后恢复重建和提升防灾减灾救灾能力的项目建设。各级党委和政府、各有关部门要坚持求真务实、科学规划、合理布局，把资金用到刀刃上，高质量推进项目建设，把各项工程建设成为民心工程、优质工程、廉洁工程。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>65</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>中心组学习动态市公安局党委理论学习中心组专题学习研讨习近平总书记考察江苏重要讲话和重要指示精神</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100185/202308/8702.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['【中心组学习动态】市公安局党委理论学习中心组专题学习研讨习近平总书记考察江苏重要讲话和重要指示精神_牡丹江市人民政府', '【中心组学习动态】市公安局党委理论学习中心组专题学习研讨习近平总书记考察江苏重要讲话和重要指示精神', '8月26日，市公安局召开党委理论学习中心组2023年第11次集体学习研讨会，专题学习习近平总书记考察江苏重要讲话和重要指示精神以及江苏·黑龙江工作交流座谈会精神。', '月26日，市公安局召开党委理论学习中心组2023年第11次集体学习研讨会，专题学习习近平总书记考察江苏重要讲话和重要指示精神以及江苏·黑龙江工作交流座谈会精神。', '习近平总书记在江苏考察期间发表重要讲话、作出重要指示，深刻阐述推进中国式现代化一系列重大问题，深刻阐释“以学促干”的丰富内涵和实践要求，为进一步推动主题教育走深走实指明前进方向，是擘画强国建设、民族复兴宏伟蓝图在江苏的具体化，对指导龙江振兴发展同样具有重要指导意义。全市公安机关要深刻把握习近平总书记重要讲话、重要指示精髓要义、丰富内涵和实践要求，认真学习江苏发展经验，紧密结合即将启动的第二批主题教育，完整、准确、全面贯彻新发展理念，扎实做好防风险、保安全、护稳定、促发展各项工作，为加快推进全面振兴全方位振兴、奋力谱写全面建设社会主义现代化国家龙江新篇章贡献公安力量。', '始终坚持以科技赋能、靠科技打赢，扎实推进科技兴警三年行动计划和数智警务赋能工程三年行动计划，深化公安智能化建设应用，提升市级数据服务能力。大力推进“道植、基石”两大计划，围绕基础防控、治安管理、案件查办等实战需求，推出管用好用的新系统新装备，引进培养更多公安科技领域的战略科技人才、科技领军人才和创新团队，着力推出战略性、关键性、具有自主知识产权的重大科技成果', '进一步强化实干担当，为鼓舞全警干事创业营造浓厚氛围。匡正干的导向，多做打基础利长远的事，多做群众得实惠的事，拿出实实在在的举措，着力解决电信网络诈骗、交通拥堵等群众最关心、最直接、最现实问题，努力让群众看到变化、得到实惠。增强干的动力，持续深化“工作落实年”活动，鲜明树立重实干、重实绩的用人导向，认真落实“三个区分开来”要求，坚决支持民警依法履职，为敢于担当的干部民警撑腰鼓劲，切实凝聚全警担当作为、干事创业正能量。凝聚干的合力，对内健全完善以情报指挥中心为龙头的指挥调度机制，统一信息归口和指令出口，统揽警务资源和社会资源，统筹调度重大勤务和重要任务，不断提升公安机关整体合力，有效应对各类突发事件；对外善用治理理念广泛借力、吸收民力、形成合力，深化联动共治，着力破解电诈治理、未成年人犯罪打防、公共安全监管等市域社会治理难题，构建共建共治共享新格局。', '迅速掀起学习贯彻热潮，引导广大民警全面领会、准确把握总书记重要讲话、重要指示精神，认真领会黑龙江省党政代表团赴江苏学习考察有关精神，学习借鉴江苏先进经验，不断提升工作整体水平。扎实推进夏季治安整治，全力抓好政治安全、风险防控、破案打击、社会面管控等工作，全力维护我市社会治安平稳。持续加强公共安全监管，紧盯重点领域，持续深化隐患见底、分类建库、规范建制，严防发生重大安全事故。坚决贯彻落实中央、省委、市委关于防汛救灾和灾后重建相关部署，完善工作预案，备足应急物资，加强实战演练、宣传防范、重点部位巡查、秩序维护、违法犯罪打击等工作，为灾后恢复重建做出公安机关新的更大贡献。', '市公安局党委理论学习中心组成员出席会议并作研讨发言，各城区分局、镜泊湖分局、机场分局、森林分局，市局各部门主要负责同志， 边境管理支队、深化能力作风建设“工作落实年”活动领导小组办公室主要负责同志，驻局纪检监察组、“解放思想”专项领导小组办公室负责同志列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>65</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>省党政代表团长三角地区学习考察交流总结座谈会在合肥召开</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-07-23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/202307/c03_839902.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['许勤在省党政代表团长三角地区学习考察交流总结座谈会上强调 感悟真理力量紧跟核心矢志奋斗 奋力开创现代化强省建设新局面 梁惠玲讲话 蓝绍敏出席 7月22日下午，省党政代表团长三角地区学习考察交流总结座谈会在合肥召开，省委书记、省人大常委会主任许勤主持会议并讲话。他强调，要深入学习贯彻习近平总书记重要讲话重要指示精神，认真落实党的二十大战略部署，系统学习转化先进经验，完整准确全面贯彻新发展理念，融入和服务构建新发展格局，进一步解放思想、开拓创新、真抓实干，扎实推进中国式现代化龙江实践，为强国建设、民族复兴作出更大贡献。 省委副书记、省长梁惠玲讲话，省政协主席蓝绍敏，省领导李显刚、余建、王岚、徐向国、张亚中出席会议。 许勤指出，长三角一体化发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略，组织党政代表团赴长三角地区学习考察，是推动主题教育走深走实的具体实践，是贯彻落实党的二十大精神的实际行动，是学习借鉴先进经验加快振兴发展的务实举措。通过学习考察，我们深刻感悟了习近平新时代中国特色社会主义思想的真理力量和实践伟力，进一步增强了坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉；我们深切体会了三省一市胸怀“国之大者”、坚决落实国家战略的格局站位，进一步增强了推进全面振兴全方位振兴的使命担当；我们亲眼目睹了三省一市创新发展、开放发展、跨越发展的生动实践，进一步增强了推动高质量发展的信心决心；我们直观感受了三省一市干部群众和企业家干在实处、走在前列的进取精神，进一步增强了时不我待、主动作为的责任感紧迫感；我们密切了与三省一市的沟通交流，深化了全方位务实合作。 许勤强调，要透过现象看本质、透过成绩看举措、透过结果看路径，全面系统转化学习考察成果，以更高站位、更宽视野、更实作风开创龙江振兴发展和现代化强省建设新局面。要坚决筑牢政治忠诚，持续深入学习习近平总书记重要讲话重要指示精神，从党的创新理论中汲取智慧力量，运用贯穿其中的立场观点方法指导推动振兴发展实践，以更加昂扬姿态紧跟核心、矢志奋斗。要倾力服务国家大局，立足国家所需、龙江所能，坚决扛起维护国家“五大安全”政治责任，主动对接京津冀、长三角、粤港澳大湾区建设等国家重大战略，在推进新时代东北振兴中体现龙江担当、展现龙江作为。要全力推动创新发展，坚持把振兴发展的基点放在创新上，持续推进体制机制创新，深化跨区域科技创新协同，加快构建现代化产业体系，不断开辟发展新赛道、塑造发展新动能。要着力深化开放合作，在国内国际双循环中找准位置、发挥作用，深度融入共建“一带一路”，深化对外经贸合作，做强跨境产业集群，推进开放平台创新发展，着力打造我国向北开放新高地。要践行宗旨为民造福，学习运用“千万工程”和“枫桥经验”“浦江经验”，科学统筹生态建设、乡村振兴、共同富裕、基层治理和城乡一体化发展，提升治理效能，办好民生实事，让发展成果更多惠及龙江人民。要崇尚实干狠抓落实，以深化能力作风建设和“工作落实年”为牵动，推动思想大解放、能力大提升、作风大转变、工作大落实，切实把省委确定的思路、目标、任务、举措转化为实绩实效，确保习近平总书记重要讲话重要指示精神和党的二十大战略部署在龙江落地生根、造福人民。 梁惠玲指出，通过此次考察学习，进一步坚定了我省沿着习近平总书记指引方向勇毅前行，推动高质量振兴发展的信心和决心。要把深刻学习领会、全面贯彻落实习近平总书记重要讲话重要指示精神转化为推动高质量发展、实现振兴发展新突破的务实举措和具体实践，推动经济实现质的有效提升和量的合理增长。要把牢记领袖嘱托、强化责任担当转化为奋勇争先、敢闯敢干敢突破的内生动力，锚定目标、坚定信心，干在实处、走在前列。要把建设现代化产业体系目标任务转化为真抓实干、推动高质量发展的实际行动，以招商引资为抓手，坚持项目为王、实干为要，加快转方式、调结构，推动产业智能化、高端化、绿色化发展。要把科技创新优势转化为经济发展新动能，建立以企业需求为导向的科研立项机制，加快促进科技成果转化和产业化，推进科技创新与产业发展深度融合。要把深化改革创新转化为优化发展环境的工作质效，加强数字政府建设，更好服务人民群众和市场主体，推进高水平对外开放。要把振兴发展的思路要求转化为以上率下、狠抓落实的示范引领，强化攻坚克难、干事创业的价值追求，提升推动高质量发展的能力水平。 各市（地）主要负责同志，省直有关部门负责同志参加会议。（记者 李国玉 薛立伟 摄影 邵国良）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>65</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>学习之路习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202307/5557.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章_牡丹江市人民政府', '【学习之路】习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察 蔡奇陪同考察 新华社四川成都/陕西汉中7月29日电 中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是25日下午，习近平在广元市剑阁县翠云廊考察。新华社记者 谢环驰 摄 7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。 25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是25日下午，习近平在广元市剑阁县翠云廊考察。新华社记者 谢环驰 摄 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是25日下午，习近平在广元市剑阁县翠云廊考察。新华社记者 谢环驰 摄 位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！ 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆文物保护与修复馆，同现场工作人员亲切交流。新华社记者 谢环驰 摄 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆新馆参观。新华社记者 鞠鹏 摄 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆新馆参观。新华社记者 鞠鹏 摄 7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆文物保护与修复馆，同现场工作人员亲切交流。新华社记者 李涛 摄 27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。 习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。 习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。 习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。 习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。 习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。 习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。 7月29日，中共中央总书记、国家主席、中央军委主席习近平在四川考察结束返京途中，来到陕西省汉中市考察。这是习近平参观汉中市博物馆有关历史文物展陈。新华社记者 鞠鹏 摄 习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。 7月29日，中共中央总书记、国家主席、中央军委主席习近平在四川考察结束返京途中，来到陕西省汉中市考察。这是习近平参观汉中市博物馆有关历史文物展陈。新华社记者 鞠鹏 摄 途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。 中共中央政治局常委、中央办公厅主任蔡奇陪同考察。 李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章', '新华社四川成都/陕西汉中7月29日电 中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是25日下午，习近平在广元市剑阁县翠云廊考察。新华社记者 谢环驰 摄', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆文物保护与修复馆，同现场工作人员亲切交流。新华社记者 谢环驰 摄', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆新馆参观。新华社记者 鞠鹏 摄', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆文物保护与修复馆，同现场工作人员亲切交流。新华社记者 李涛 摄', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '7月29日，中共中央总书记、国家主席、中央军委主席习近平在四川考察结束返京途中，来到陕西省汉中市考察。这是习近平参观汉中市博物馆有关历史文物展陈。新华社记者 鞠鹏 摄', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>65</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>学习之路习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙江高质量发展新局面</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202309/5566.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面_牡丹江市人民政府', '【学习之路】习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面', '新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 谢环驰 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村村民史瑞娟家的民宿小院考察。新华社记者 鞠鹏 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>65</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>培育壮大新动能激发创新驱动力六论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/201810/c03_814528.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['培育壮大新动能激发创新驱动力 六论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '培育壮大新动能激发创新驱动力 六论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '习近平总书记在深入推进东北振兴座谈会指出：“以培育壮大新动能为重点，激发创新驱动内生动力。”贯彻落实习近平总书记重要讲话精神，要深刻领会创新这一新发展理念的精神实质：创新是引领发展的第一动力，居于国家发展全局的核心位置，标注了当今中国发展的方向和要求。 创新、协调、绿色、开放、共享“五大发展理念”，创新位居首位。创新，创新驱动，激发内生动力，是习近平总书记反复强调的。早在2016年习近平总书记在我省考察时就指出“万峰磅礴，必有主峰。转方式调结构，构建现代产业新体系，最终要靠创新引领。”在农垦建三江管理局，习近平总书记就加快建设现代农业指出，要贯彻新发展理念，全面增强农垦内生动力、发展活力、整体实力。在齐齐哈尔中车齐车集团，他勉励，要乘势而为、乘势而上，加强自主创新，练好内功，不断推出新技术、新产品、新服务，永远掌握主动，不断做强做优做大。习近平总书记对黑龙江的这些指示告诉我们，实现龙江的全面振兴，必须切实增强实施创新驱动发展战略的自觉性和坚定性，依靠创新把实体经济做实、做强、做优，塑造发挥先发优势的引领型发展。 自习近平总书记2016年考察黑龙江以来，我省全面贯彻落实习近平总书记对我省重要讲话精神，立足传统、突破传统，加快新旧动能转换；依托现实、推动变革，坚持创新驱动发展。围绕抓落实、转理念、塑环境做了大量工作，体制机制进一步完善，产业结构进一步优化，创新创业氛围初步形成。尤其是深入实施千户科技型企业三年行动计划，一大批科技型企业注册成立，新形成的主营业务收入、高新技术产业增加值都出现了明显的提升。但是，我省科技成果产业化应用水平低、企业规模小、产业集中度不高，创新能力不足、竞争力不强仍然是需要持续解决的问题。 创新发展首先要解决的是创新动力的培育。习近平总书记强调：“要依靠创新把实体经济做实、做强、做优，坚持凤凰涅槃、腾笼换鸟，积极扶持新兴产业加快发展，尽快形成多点支撑、多业并举、多元发展的产业发展格局。”实体经济的发展，要靠企业来实现。创新型企业是创新发展的基本主体，新技术是创新发展的核心内容，而新制度是创新发展的内在动力。因此，我们要通过体制机制的变革，通过推进供给侧结构性改革和基础性关键性改革，建立新制度，培育新要素，形成新市场，发展新产业，壮大新主体。 创新能否成为引领发展的第一动力，关键在科技创新。习近平总书记曾经指出：“谁牵住了科技创新这个牛鼻子，谁走好了科技创新这步先手棋，谁就能占领先机、赢得优势。”我省科教实力雄厚，有哈工大、哈工程、哈兽研、703研究所等重点高校和科研院所，对于我省应用新技术、生产新产品、打造新产业、培育新业态，具有很强的支撑作用。只要把这些科技资源、科技潜能、科技优势挖掘好、培育好、利用好，就能够对我省培育壮大科技型企业、提高科技进步贡献率、实现经济高质量发展，发挥巨大的作用。 创新归根到底是人才创新，创新驱动归根到底是人才驱动，人才是支撑创新发展的第一资源。着力发现、培养、集聚战略科学家、科技领军人才、企业家人才、高技能人才队伍，从而创造更多原始创新、产生更多转化成果、培养更多创新团队，是一项需要持之以恒、久久为功的事业。我们要坚定不移地推动实施人才强省战略，注重培养一线创新人才和青年科技人才，完善人才评价激励机制和服务保障体系，让真正的人才有为有位。要突出“高精尖缺”导向，实施更加开放的创新人才引进政策，更大力度引进急需紧缺人才，聚天下英才而用之。 抓创新就是抓发展、谋创新就是谋未来。创新不仅是推动科技进步的智慧源泉，更是驱动一个国家、一个民族持续发展的不竭动力。只要我们全面深入贯彻落实好习近平总书记的重要讲话精神，让创新在全社会蔚然成风，让一切创新的源泉充分涌流，就一定能够实现龙江经济的高质量发展，实现龙江的全面振兴、全方位振兴。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>65</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>省政府代表团解放思想广东行在第一站广州开展学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-10-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/201810/c03_814547.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['18日上午，省政府代表团“解放思想·广东行”一行首站在广州市开展学习考察活动。 代表团来到广州市政务服务中心，了解“放管服”改革成效。2016年2月起，市政务大厅实施“一窗式”集成服务改革，政务环境满意度连续两年名列广东省第一，以“办事便捷化、审批电子化、监控网络化、服务高效化”为理念，为广大企业和群众提供了便捷、高效的服务。工程建设项目审批制度改革成为国家和广东省双试点。 广州市政务服务中心。孙强 摄 海格通信前身是广东省国有军工企业，通过混合所有制改革上市，为广州市属国有企业中实施员工持股计划的第一家上市公司。通过机制体制创新和转型升级，企业焕发活力。 代表团来到海格通信集团股份有限公司，了解企业高度重视自主创新，每年投入技术研发，拥有北斗导航领域领先的关键技术自主知识产权60多项，通过“产业+资本”双轮驱动和军民融合发展实现跨越式发展情况。 海格通信·北斗卫星产业集团。孙强 摄 国机智能科技有限公司，是以创建于1959年的广州机械科学研究院为主体，由中国机械工业集团与广州市政府共同投资组建转制的科技型企业。 代表团来到国机智能科技集团，了解国机智能作为国家首批创新型企业，致力于研究和发展自主品牌机器人及关键零部件、智能装备、智能制造技术和相关产品，给传统制造业转型升级提供解决方案，并与我省哈工大等高校开展产学研合作情况。（作者：王坤） 国机智能科技有限公司。孙强 摄']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>65</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>解放思想广东行省政府代表团学习考察侧记</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2018-10-21</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/201810/c03_814561.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['今年是改革开放40周年，在全省深入贯彻落实习近平总书记在深入推进东北振兴座谈会上重要讲话和在我省考察时重要指示精神的重要时节，10月17日至19日，省政府代表团走进广东，交流对口合作、推介产业优势，到广州、深圳、东莞三地考察创新型、高科技企业，与企业家和在粤龙江家乡人交心听取意见和建议。三天之旅，行程紧凑、内容丰富，到思想解放的最前沿观潮头取真经，到改革开放的肇兴地再听“春天的故事”，代表团成员边走边听边看边思考，接受观念洗礼，谋划奋起直追。 破除思想“自闭”接受观念洗礼 19日，代表团一行来到深圳莲花山公园，拜谒小平同志塑像并敬献花篮，表达对中国改革开放的总设计师邓小平的敬仰。 在山顶广场，代表团成员看着山下的繁华盛景，聆听深圳改革不停顿、开放不止步的发展历程，一次次深情仰视小平同志的铜像，领悟改革开放“解放思想、敢闯敢试、敢为天下先”的内核。 佳木斯市长邵国强每到一个企业都看得真切、问得仔细，不时地掏出个小本本记着要点。在海格北斗产业园翻看着企业的“成长传记”，他深有感触。他说，这次学习考察活动定位为“解放思想”，无疑是抓住龙江加快发展的“牛鼻子”，意义非凡。地方经济发展缺资金、缺项目、缺人才、缺创新，但最大的短板是思想观念，旧的思想观念和不适宜的思维定势不破除，市场经济理念不强化，发展障碍就无法扫除。解放思想是一场头脑风暴，不能刮一阵风，也不能刮微风，要撼动人心，要循序渐进，要打持久战，要变为行动自觉，要成为加快发展的推动力。 省工业和信息化厅厅长张显丰用主题很突出、目的很明确来看待这次“解放思想广东行”。他说，解放思想广东行成果要体现在学懂弄通做实上，要体现在工作要有新理念新思路新办法上。作为全省工业和信息化牵头部门，要体现在把工业强省和数字龙江规划做好上，归根结底就是要把学习贯彻总书记对黑龙江重要讲话和重要指示的具体成果体现在真学真懂、真信真用、真干真变这“六真”上，努力把龙江实体经济做强做优做大。 “分析我省和我市经济社会发展面临问题原因，表层看是资源依赖型经济结构没有打破的问题，浅层看是环境不优吸引力不强的问题，深层看是体制机制不适应新形势的问题，从核心层看很大程度上是我们思想解放不够的问题。”七台河市长贾君对解放思想有着自己的真知灼见。他说，广东人不靠政府靠市场的“而立”精神和在资本市场融资运作的成熟度，都值得我们反观自身“不想创业、不会创新，小富即安、小进即满，习惯于种铁秆庄稼，习惯于端铁饭碗”等现象，思想“自闭症”不破除，难有大发展、大作为。 寻找差距“补短”破解机制体制障碍 习近平总书记在东北振兴座谈会上明确指出东北存在着体制机制、经济结构、对外开放、思想观念四个方面短板。代表团成员们一路上，思考最多的就是“面对发展差距，我们如何办？” 省教育厅厅长赵国刚告诉记者，来到中国改革开放最前沿，体会最深的不是开眼界、换脑筋，而是对标先进，让广东经验、广东意识、广东精神为我所用；寻找差距，弥补不足，把思想观念的大解放、体制机制的大创新与推动龙江高质量发展一脉相承、一以贯通。对于教育战线而言，我们要学习广东人的专业化素质和求实作风，紧紧抓住对口合作契机和平台，以开放促创新、以创新促改革、以改革促教育，汲取先进思想，创新体制机制，优化教育结构，“建一流、创特色、补短板、强内涵”提升教育发展质量，提升服务能力，搭建教育联合体和联盟，打造人才特区，推进头雁计划，服务龙江农业现代化、军民深度融合、旅游康养休闲冰雪产业、对俄合作战略，为龙江全面振兴全方位振兴提高人力、人才和智力支撑。 绥化市长张子林这几天的手机里记录着点点滴滴的心得体会，他说，没有改革开放就没有今天的广东，同样，不深化改革，龙江就没有出路，解放思想不能空谈，要落在龙江加快发展上来。绥化作为农业大市，抓好“粮头食尾”、“农头工尾”，发挥资源优势，要通过引进一流的企业，倒逼政府转变职能、干部转变作风，服务提升水平。通过企业和项目落地，促进当地形成更好的政策环境、法治环境、人文环境和营商环境。针对体制机制中的短板，能复制的成功经验要马上复制，能改造推广的要马上改造推广，要对标先进、积极作为。 改革开放“加速”要持续优化营商环境 从广州白云机场开往市区，映入眼帘的第一句话是路旁矗立的“开创广东工作新局面，最根本还是要靠改革开放”。 省商务厅厅长赵万山说，改革开放是发展的根和魂，越改革才越有发展，越开放就越有活力。习近平总书记说，改革开放是决定当代中国命运的关键一招，通过学习考察，更加坚定了我们提升开放层次、深化改革措施和加快发展的决心；也使我们进一步深刻理解了党中央作出组织东北地区与东部地区部分省市建立对口合作机制决策部署，对于充分发挥中央和地方两个积极性，形成共同推进东北地区实现全面振兴的合力重要意义的认识，更加增强了我们学习广东经验、强化产业合作，推动龙粤两省高水平共赢发展的信心。我们将围绕省政府提出的抓投资、抓项目、抓招商、抓环境、抓改革开放创新、抓解放思想等“六抓”，充分发挥我省对俄“排头兵、桥头堡、枢纽站”作用，与广东企业联手，深化与俄罗斯在能源、农业、林业等方面的经贸合作，共同开拓俄罗斯市场。 七台河市同样在重视营商环境中受益，市长贾君告诉记者，开展对口合作以来，七台河学习借鉴广东江门等地先进经验和做法，出台了“黄金十条”系列优惠政策，政策洼地效应逐步形成，撬动作用成效逐步显现，这些都为地方转型振兴发展打下了坚实基础。 练好创新“内功”推进转方式调结构 取改革开放真经，为的是谋龙江振兴实招。 “推动广东快速发展固然有诸多因素，而思想解放、敢为人先、创新引领则是让我们感触最深的。”省科技厅厅长张长斌告诉记者，一路上所见所闻改革开放最前沿广东的高速发展，从广州市政管理中大数据的运用，到平安公司金融与人工智能的结合，从海格通讯导航芯片自主研发，到华为自动化装配线的高效生产，无不体现着勇于突破旧传统，勇于探索新路径，勇于应用新技术的创新精神。黑龙江有着丰富的科技创新资源和基础，我们要认真吸收先进地区的经验，进一步解放思想，落实习近平总书记关于“创新是引领发展第一动力”的重要论断。按照总书记在东北振兴座谈会上的指示要求，加强自主创新，练好内功，不断推出新技术、新产品、新服务，培育壮大新动能，激发创新驱动内生动力，在转变思想观念提高科技系统开放创新意识上下功夫，在加速军民融合促进科技成果转化上下功夫，在加强对俄科技合作对接落实“一带一路”战略上下功夫，以“新一轮科技型企业三年行动计划”为抓手在培育壮大科技型企业上下功夫，以机构改革为契机在加快提升全省科技创新能力上下功夫，科技创新引领龙江全面振兴，用高新技术成果产业化推动龙江转型发展。 树立发展“自信”优势互补南北互动 课堂在广东，考场在龙江，把资源优势做大做强转化为经济优势，是农业部门负责同志的深深思考。 省农业农村厅厅长王金会说，国家做出对口合作的重大战略部署，旨在充分发挥市场的作用，产业对接互补、合作平台共建。现代农业是龙江发展的优势领域，我们牢记习近平总书记的嘱托，争当农业现代化建设排头兵、当好维护国家粮食安全的“压舱石”。我们在巩固传统优势的基础上，要对标先进，特别是向国内国际农业发展的最高标准、最好水平对标对表，学习国内外最先进的农业生产技术和思维模式，站在更高视野谋划和推动现代农业发展，坚定了龙江现代农业发展“自信”，打好龙江寒地黑土、非转基因、绿色有机这张最靓的牌，加快推动农业大省向农业强省转变。 省粮食局局长朱玉文接着话茬往下说道，总书记到建三江作出了“中国粮食、中国饭碗”“中国现代化离不开农业现代化”“给农业现代化插上科技的翅膀”等重要指示，进一步坚定了我们发展粮食产业的信心和决心。下一步，我们要将在广东省学到的专业化经验做法，坚持科技兴粮、产业兴粮，加快推进粮食收储制度改革和“粮头食尾”“农头工尾”建设，以新气象新担当新作为推进全省粮食高质量发展，为保障国家粮食安全作出新的贡献。 看到差距、明晰方向、坚定信心，“解放思想广东行”努力答好习近平总书记交予龙江全面振兴全方位振兴的新答卷，只有进行时。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>65</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>建设一带一路开放合作新高地九论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2018-10-19</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/201810/c03_814550.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['建设“一带一路”开放合作新高地 九论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '建设“一带一路”开放合作新高地 九论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '开放合作是科技进步和生产力发展的必然逻辑，未来中国经济实现高质量发展也必须在更加开放条件下进行。习近平总书记在深入推进东北振兴座谈会上再次强调开放发展的重要性，并要求我们“深度融入共建‘一带一路’，建设开放合作高地”，为东北地区如何在开放合作中分享机会和利益、实现互利共赢指引了方向。我们要牢固树立人类命运共同体意识，发挥龙江的区位优势和资源禀赋，抓住新一轮科技革命和产业变革的历史性机遇，进一步发展社会生产力、释放社会创造力，走好开放发展之路。 有了开阔的心态，就会有积极的姿态；有了宏大的格局，就会有扎实的布局。2016年习近平总书记考察黑龙江时，对我省提出“着力优化对外开放新格局”的要求，言犹在耳：黑龙江有2900多公里边境线、15个边境口岸，要主动对接国家“一带一路”建设，发挥地缘优势，注重同俄罗斯远东地区开展战略对接，参与“中蒙俄经济走廊”建设，加快形成对外开放新格局……是的，看中国地图，黑龙江偏于一隅；看世界地图，黑龙江就是东北亚的腹地。近年来，我省发挥地缘优势着力打造国家向北开放的重要窗口，主动对接国家“一带一路”，参与“中蒙俄经济走廊”建设，由此实现了“边陲变中心、末梢变前沿”的华丽转身。尤其在经贸合作、基础设施互联互通、人文交流等方面取得了重大进展。构建以对俄合作为重点的全方位对外开放格局，成为我省打造开放型经济的必选项。就在几天前，我省第一座与俄罗斯相通的跨境铁路大桥——同江中俄铁路大桥中方段工程全部完成，大桥通车后将使国内铁路与俄远东地区至西伯利亚铁路相连，使我省“东出西联”的设施联通更加顺畅。 在相向而行中越走越近，在路路相连中美美与共。五年来的实践证明，“一带一路”建设为实现世界共同发展繁荣注入推动力量、增添不竭动力，正书写着经济全球化的新篇章。让“一带一路”建设行稳致远，需要一步一步扎实推进、一点一滴深化落实。习近平总书记此次考察东北三省，听说中车齐车集团有限公司产品出口50多个国家，他高兴地勉励大家，进一步拓展国际市场，在服务共建“一带一路”中取得新的更大业绩。如何按总书记所要求的那样取得新的更大业绩？我们就要树立全球视野，把我们的优质产能与“一带一路”沿线国家不断实现精准对接，优势互补，凝聚起合作发展的力量，加快构建东北对外开放的大通道、大平台、大布局。对于边境线漫长、边境口岸多的我省来说，要进一步完善基础设施互联互通，完善集疏运体系，畅通东出西联的国际经贸大通道。进一步提高通关便利化水平，畅通项目对接，打造跨境产业链和产业聚集带，发展优势产业群，实现多边合作、多方共赢。进一步完善我省与俄远东州区合作机制，积极向俄罗斯腹地延伸合作，促进经贸、科技、人文等多领域合作交流。 从“着力优化对外开放新格局”到“建设开放合作高地”，总书记对我们“开放发展”提出了越来越高的期待。我们要胸怀大局、把握大势、着眼大事，既把握和利用好有利的国际环境、又主动应对复杂国际因素带来的新问题新挑战，始终坚定信心、努力增强本领，着力发展更高层次的开放型经济，在“一带一路”建设中，紧紧抓住发展这个最大公约数，实现经济大融合、发展大联动、成果大共享。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>65</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>更加关注补齐民生短板十论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018-10-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/201810/c03_814556.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['更加关注补齐民生短板 十论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '更加关注补齐民生短板 十论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '人民对美好生活的向往，就是我们的奋斗目标。在深入推进东北振兴座谈会上，习近平总书记指出：“更加关注补齐民生短板，让人民群众共享东北振兴成果”。如磐初心，写在东北大地上。“确保养老金按时足额发放，确保按时完成脱贫任务，完善社会救助体系，保障好城乡生活困难人员基本生活。要加大东北地区公共基础设施领域的投资力度，支持东北地区轨道交通、集中供热、网络宽带等城市基础设施建设。”总书记的各项部署无一不是从人民最关心、最直接、最现实的利益入手。让我们感到贴心暖心增信心。 金秋时节，习近平总书记在短时间内在东北三省进行“大跨度”考察，所到之处最关心的是民生问题。在我省建三江，总书记亲切询问收割机驾驶员们：今年收成怎么样、粮食价格怎么样、家庭收入怎么样、子女就业怎么样、农场经营有什么困难和要求，叮嘱他们注意作业安全。在考察抚顺市采煤沉陷区避险搬迁安置情况时，总书记对大家说，我一直牵挂着资源枯竭型城市，惦记着这些城市经济怎样、人民生活怎样，我这次就是专程来看看。心心念念，民生情怀溢于言表。近年来，总书记多次考察东北，深入最多的是农村、社区和企业，走访最多的是普通百姓，关注最多的是脱贫攻坚，询问最多的是人民福祉——与伊春林区职工算收入支出账，同同江赫哲族老人话民族一家亲，在百姓家中体验“暖房子”工程成效……人民，在习近平总书记心中始终处于最高的位置。人民，始终是习近平总书记心中最深的牵挂。 的确，人民生活水平不断提高是判断东北振兴的重要标准。近年来，我省把“民之所盼”作为“施政所向”，在经济下行压力下持续改善民生，人民生活水平不断提高。城乡居民收入增速“跑赢”GDP增速、贫困发生率大幅下降、社保标准逐年提升、500多万城乡居民住房条件得到改善，群众获得感幸福感明显增强。但是我们也要看到，与人民群众对更加美好的生活向往相比，与人民群众对覆盖面更广、兜底能力更强的民生保障的期盼相比，与党中央对新时代东北振兴的要求相比，我省的民生短板仍然很多。我们必须坚持尽力而为、量力而行，坚守底线、引导预期，针对人民群众关心的新老问题精准施策，给人民群众带来更多获得感、幸福感、安全感。 让人民群众共享东北振兴成果，是推动龙江全面振兴全方位振兴的出发点和落脚点。我们要多谋民生之利、多解民生之忧，在发展中补齐民生短板，不断取得民生建设新进展。要强化社会保障体系建设，全面推进养老保险制度改革，积极争取国家支持，及时做好资金调度工作，确保按时足额发放。要扛起脱贫攻坚的政治责任，做到“六个精准”，落实“五个一批”，提高扶贫脱贫工作成效，坚决打赢脱贫攻坚战。在总书记所强调的城市基础设施建设上，要在轨道交通、集中供热、网络宽带等方面，秉持“抓民生就是抓发展”的理念，找到改善人民生活与改革发展稳定关系的结合点，把改善民生作为重要的增长点、动力源，使基础设施建设既利百姓，又利国家；既利当下，又利长远。 民生连着民心，民心凝聚民力。人民是推进龙江全面振兴全方位振兴的最大力量源泉。一个好的社会，既要充满活力，又要和谐有序。只有牢牢把握共建与共享的辩证法，在全社会营造人人参与、人人尽力、人人享有的良好环境，才能厚植发展优势、凝聚发展伟力、提升发展境界。 走过再长的路，走到再远的未来，“人民”都永远是我们的关键词。3800万龙江人民对美好生活的向往，是龙江振兴发展的最大动力，我们要以“一件事情接着一件事情办，一年接着一年干，一任接着一任做”的韧劲，在“幼有所育、学有所教、劳有所得、病有所医、老有所养、住有所居、弱有所扶”上不断取得新进展，让龙江人民的生活一年更比一年好。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>65</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>抓好重中之重挺起龙江制造脊梁四论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2018-10-11</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/201810/c03_814507.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['抓好重中之重挺起“龙江制造”脊梁 四论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '抓好重中之重挺起“龙江制造”脊梁 四论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '习近平总书记在我省考察时强调：“装备制造业是国之重器，是实体经济的重要组成部分。国家要提高竞争力，要靠实体经济。”“制造业特别是装备制造业高质量发展是我国经济高质量发展的重中之重，是一个现代化大国必不可少的。”这一重要讲话，深刻指出了制造业之于实体经济、实体经济之于经济发展的内在关系，对我省实现经济高质量发展具有极强的针对性和指导性，对我省实现“全面振兴、全方位振兴”具有重大的现实意义。 实体经济是国民经济的基石，制造业是实体经济的主体。发展实体经济，必须抓好制造业。改革开放40年的实践证明，广东、江苏等发达省份的崛起，无一不是积极抢抓世界制造业资本转移的机遇，以制造业为主体的实体经济迅猛发展的结果。新时代中国经济由高速增长阶段转向高质量发展阶段，省委十二届二次全会也把建设工业强省、制造强省作为现代产业新体系的战略重点。只要我们持续加快工业结构调整、转型升级和创新发展，不断提升制造业核心竞争力，就一定能打造“龙江制造”新优势。 黑龙江不是传统意义上的制造业大省，但是，我们在资源、科技、人才等方面具有一定的比较优势，尤其是在装备制造业方面承继着“共和国长子”最优良的基因和血脉，同时也肩负着保障国家产业安全的神圣使命。我省电力装备、燃气轮机、重型数控机床等领域在全国都占有重要地位，在机器人、航空航天、舰船动力、海工配套装备等领域，实力也充分展现。在信息技术、科技革命与制造业融合发展新时代，要抓住全球制造业转型升级和我国经济转型的机遇，推动实现互联网、大数据、人工智能与制造业的深度融合，依靠创新把我省装备制造业做实、做强、做优，以装备制造业这个“龙头”，带动龙江制造业跃上一个新台阶。 做好“三篇大文章”，是习近平总书记2016年在黑龙江考察时留给我们的重大课题，也是黑龙江实现制造业提质、增量的发力点，更是实现黑龙江全面振兴发展的金钥匙。我省的“三篇大文章”，主要集中在制造业领域。着力构建“老字号”传统优势产业向中高端迈进、“原字号”资源精深加工业向产业链延伸、“新字号”战略性新兴产业和现代服务业向新增长领域拓展，是我省的既定目标。只要我们改造升级“老字号”能够把握转型新机遇，深度开发“原字号”不断释放发展新优势，培育壮大“新字号”坚持打造振兴新引擎，“三篇大文章”必定笔酣墨饱，波澜壮阔。 要充分利用好国家重大政策、重大举措所释放的红利，尤其要主动对接国家“一带一路”战略。习近平总书记勉励中车齐车要“进一步拓展国际市场，在服务共建‘一带一路’中取得新的更大业绩。”总书记对中车齐车肯定，就是为我们树立目标、标定方向。“一带一路”是助推我省制造业加快发展的机遇，更是高质量装备制造走出国门、走向世界的良机。我们要充分发挥我省的地缘优势，坚持“出口抓加工、进口抓落地”，依托国际产能合作，促进生产要素向通道沿线集聚，加快对外贸易合作转型升级。要持续推动装备制造、食品制造等有比较优势的产业“走出去”，大力开拓国际市场，打造开放合作新引擎。 习近平总书记在我省考察时指出，要加强自主创新，练好内功，不断推出新技术、新产品、新服务，永远掌握主动，不断做强做优做大。自力更生、艰苦创业，曾经是东北屡创奇迹的“精神密码”，新时代我们要始终坚持自主创新，坚持创新引领，把振兴发展的基点放在创新上，向改革创新要动力，向科技创新要效益。不断完善制造业创新体系，围绕产业链，部署创新链，扎实推进关键技术攻关、新产品开发、企业技术中心建设、产学研联合、企业信息化和高新技术产业化等工作，加快科技创新成果转化。 重点，常常也是难点。黑龙江经济高质量发展的重点在制造业，难点也在制造业。我们要时刻牢记习近平总书记“千难万难，只要重视就不难；大路小路，只有行动才有出路”的教诲，不断完善政策，强化创新，优化环境，为经济高质量发展、为实现黑龙江全面振兴，挺起龙江制造业特别是装备制造业的脊梁。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>65</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>优化营商环境全面深化改革五论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2018-10-12</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/201810/c03_814516.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['优化营商环境全面深化改革 五论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '优化营商环境全面深化改革 五论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '营商环境是一个地方的重要软实力，优化营商环境就是解放生产力，就是提高综合竞争力。习近平总书记就深入推进东北振兴提出了6个方面的要求，贯穿的是新发展理念，在坚持创新、协调、绿色、开放、共享发展的基础上，习近平总书记把“以优化营商环境为基础，全面深化改革”作为第一条要求首先提出，并阐释了“三个下功夫”和“五个有利于”的方法论，剑指全面深化改革的思路。 习近平总书记为什么反复强调重塑环境和优化营商环境？这是对东北地区共性问题把脉制定的药方，抓住了解决问题的“牛鼻子”。毋庸讳言，东北地区进入计划经济较早，退出较晚，营商环境与东南沿海地区相比存在一定差距，这已成为当前区域经济增长的一个重要制约因素。同时，不容否认，近年来我省以及整个东北地区通过大兴实干之风，坚决反对不正之风，发展观念在变、干部作风在变。特别是近两年“优化发展环境”已成为高频词汇。 以我省为例，去年我省从省直机关开始结合“两学一做”学习教育，分阶段开展作风整顿活动，突出问题导向，持续开展作风整顿，带来了精神大振奋、作风大转变、状态大提升，倡导“五个好作风”、争做“三个好把式”在全省干部中蔚然成风。今年我省继续乘势而上、扩大战果，在全社会开展整顿作风优化营商环境攻坚任务，直击群众最反感、市场主体最困扰、制约发展最突出的问题，以壮士断腕的决心进一步深化“放管服”改革，为市场主体松绑，夯实诚信法治“基础桩”，取得了阶段性成果。然而，我们在看到成绩的同时也要清醒地意识到，不良作风积习很深，具有复杂性、顽固性等突出特点，纠治起来也不是朝夕之功，不可能一蹴而就，尚需进一步破解。学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神，就要继续以踏石留印、抓铁有痕的劲头，构建“亲”“清”政商关系，建设适应现代化经济体系、推动高质量发展的营商环境。 优化营商环境是系统工程，也是基础性工程，其目的是保障全面深化改革这一首要任务。东北地区发展面临的困难和问题，有共性问题，也有个性问题，解决这些困难和问题，归根结底都要靠全面深化改革。在改革问题上想要排好队、齐步走、整齐划一是不切实际的。要想顺利“过河”，就要根据自身实际找到不同的“桥”和“船”。习近平总书记提出要“在谋划地区改革发展思路上下功夫，在解决突出矛盾问题上下功夫，在激发基层改革创新活力上下功夫”，这“三个下功夫”明确了深化改革的着力点；强调要“重点从有利于深化供给侧结构性改革、有利于加快培育经济增长新动能、有利于激发各类市场主体活力、有利于增强人民群众获得感、有利于调动保护广大干部群众积极性等方面完善改革思路”，这“五个有利于”突出了完善改革思路的总原则。我们要按照习近平总书记的要求，既要统筹推进，又要重点突破，注重改革的系统性、整体性、协同性，坚定改革信心，做实改革举措，释放改革活力，提高改革效能，为新时代东北全面振兴提供强劲动力。 水深则鱼悦，城强则贾兴。习近平总书记2016年两次对黑龙江发表重要讲话中都提出了留住人才的要求，在此次深入推进东北振兴座谈会上再次强调，要多方面采取措施，创造拴心留人的条件，让各类人才安心、安身、安业。对于我省来说，就是要把“人力资源是第一资源”的理念贯彻始终，继续从思想认识、体制机制和服务观念入手，多方面采取措施优化人才环境，让各类人才“望旆来归”，促进龙江人才队伍的稳定与发展，为龙江振兴发展注入强大活力。 全面深化改革，优化营商环境，注定是一场关乎全局、决定未来的持久战。困难越大、矛盾越多，越需要埋头苦干的真把式，雷厉风行的快把式，追求卓越的好把式。我们必须用思想的力量催动改革的步伐，以科学的方法善作善成，强化改革定力、强化创新突破、强化部门协同、强化政策落地，激发广大群众的积极性与创造性，重塑环境，重振雄风，不断把全面深化改革的大业推向前进。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>65</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>为中国饭碗提供最坚实保障三论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2018-10-10</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/201810/c03_814503.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为“中国饭碗”提供最坚实保障 三论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '为“中国饭碗”提供最坚实保障 三论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '“中国粮食！中国饭碗！”习近平总书记在我省农垦建三江管理局考察时，双手捧起一碗大米，意味深长地说出这八个字，同时强调，中国人的饭碗任何时候都要牢牢端在自己的手上。《洪范》八政，食为政首。民为国基，谷为民命。在总书记的心中，13亿多中国人的饭碗何其沉甸甸，对黑龙江的期盼和嘱托又何其深沉。 粮食安全一直是大问题，解决好吃饭问题始终是治国理政的头等大事。曾经“棒打狍子瓢舀鱼，野鸡飞到饭锅里”的北大荒，在新中国成立之初，就作为共和国粮食安全的战略基地进行开发建设。黑龙江作为农业大省和粮食主产区，长期以来为国家粮食安全作出重要贡献，近些年来更是粮食总产量、商品量、调出量都保持全国第一，成为国家粮食安全的“压舱石”。保证“中国饭碗”任何时候都要牢牢端在自己的手上，为“中国饭碗”提供最坚实保障，是黑龙江的神圣职责和使命。 为“中国饭碗”提供最坚实保障，土地是根本。习近平总书记强调，要加快绿色农业发展，坚持用养结合、综合施策，确保黑土地不减少、不退化。这是立足当下、惠泽子孙的战略思想。绿色发展要想有可持续性，农业生产就不能竭泽而渔。只有守住今天的耕地，才能守住明天的饭碗。如果没有不断优化的耕地资源做支撑，“中国饭碗”装“中国粮食”最终就将无从谈起。我们必须加强资源保护，严守耕地“红线”，坚持最严格的耕地保护制度和节约集约用地制度，加大高标准基本农田保护和建设力度，持续开展中低产田改造和生产条件的改善，并不断强化耕地保护责任目标考核机制，促进粮食生产能力的稳步提升。 为“中国饭碗”提供最坚实保障，农业现代化是方向，科技、人才是关键。习近平总书记指出，中国现代化离不开农业现代化，农业现代化关键在科技、在人才。要把发展农业科技放在更加突出的位置，大力推进农业机械化、智能化，给农业现代化插上科技的翅膀。从北大荒到北大仓，从原生态到高科技，我省农垦趟出了一条依托机械化、信息化、智能化实现农业现代化的成功路子。从高空的卫星、低空的无人机到地面的各种现代农业数据传感器，越来越智能的新技术正在逐渐应用到传统农业中。科技，正在重新定义着“农耕技艺”的内涵。科技，正在成为“看天收”的克星。我们要以实施乡村战略为契机，以农业供给侧结构性改革为抓手，做好科技兴农、科技强农文章，坚定不移走中国特色新型农业现代化道路。 为“中国饭碗”提供最坚实保障，绿色发展，要摆在优先位置。2016年习近平总书记在黑龙江考察时强调：“要积极发展绿色食品产业，培育绿色生态农产品知名品牌。”“推动黑龙江由大粮仓变成绿色粮仓、绿色菜园、绿色厨房。”绿色发展，是新时代必须坚持的新发展理念之一。而绿色发展在农业上的体现更直接，人们的感受更强烈。面对消费者对优质、绿色、健康食品的旺盛需求，我省多年积累的绿色生态农业优势，迎来了宝贵的“机遇”。我省绿色食品认证面积、产量、标准化生产水平、产品质量、市场网络和品牌影响力等指标连续多年居全国首位，声名远播。行百里者半九十。优势和领先，不是我们骄傲的资本，而是我们继续奋进的源泉。我们需要的是击楫中流，更上层楼。 没有农业农村的现代化，就没有中国的现代化。实现“两个一百年”奋斗目标，最艰巨最繁重的任务在农村，最广泛最深厚的基础在农村，最大的潜力和后劲也在农村。筑牢国家粮食安全“压舱石”，争当农业现代化建设排头兵，是习近平总书记对黑龙江的要求。保证“中国饭碗”任何时候都要牢牢端在自己的手上，是黑龙江的使命。生逢新时代，奋进正当时。我们每一个人都是新时代的见证者、开创者、建设者，我们要充分发挥黑龙江农业这个得天独厚的优势，打好“压舱石”“排头兵”这张“王牌”，为“中国粮食！中国饭碗！”提供最坚实的保障。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>65</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>全省部分市地委书记广东考察谈对口合作学习先进理念南北联动形成浓厚氛围立足优势互补协同发展谋求合作共赢</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2017-12-18</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/201712/c03_812349.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['全省部分市（地）委书记广东考察谈对口合作 学习先进理念南北联动形成浓厚氛围立足优势互补协同发展谋求合作共赢_牡丹江市人民政府', '全省部分市（地）委书记广东考察谈对口合作 学习先进理念南北联动形成浓厚氛围立足优势互补协同发展谋求合作共赢', '在全省深入贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神之际，为贯彻落实党中央实施东北振兴战略作出的组织东北地区与东部部分省市建立对口合作机制的重大部署，扎实推动落实黑龙江与广东的对口合作，14日到16日，我省党政代表团在广州、深圳两地深度学习对接，了解城市建设、创新发展、企业经营等方面情况，一路看一路听，一路学一路想，梳理优势，寻找互补。 在粤期间，鸡西-肇庆、伊春-茂名、七台河-江门、鹤岗-汕头、绥化-湛江、大兴安岭-揭阳等6对城市“握手”，加上之前已结对的哈尔滨-深圳、齐齐哈尔-广州、黑河-珠海、双鸭山-佛山、大庆-惠州、牡丹江-东莞、佳木斯-中山等7对城市，全省十三个市地都找到对口合作“小伙伴”。记者采访了部分市(地)委书记，听他们谈学习收获、发展启示和下一步的实干举措。 虚心学习更新观念，促进干部作风转变，把合作落实到具体的项目上 “要充分利用好这次对口合作的机会虚心学习，学习深圳市党委政府、企业在市场经济大潮中勇闯、勇试。”省委常委、哈尔滨市委书记王兆力说，进一步更新观念、解放思想，破除束缚哈尔滨发展的体制机制，进一步优化发展环境，促进各级干部作风的转变，这一点比具体项目的合作更为重要，“从思想层面、体制机制深层次解决制约发展的突出问题。”他认为，对口合作不能停留在协议、停留在简单的交流层面，要来真的，动实的，把具体合作内容一项一项梳理出来，一项一项地干起来，哪怕是一年干成几件事，在党中央确定的三年对口合作时间内，也会一步步地积累，做成几件大事。通过这次实地考察学习，王兆力的体会是哈尔滨要从创新驱动推动发展入手。“哈尔滨科技实力比较强，短板在转化，而深圳在转化的平台、转化的机制、转化的思路、转化的办法上，都比我们多，把双方优势结合起来。”此外，合作将着力促进哈尔滨对外开放——哈尔滨新区被国务院确定为中俄全面合作重要承载区，下一步要在打造中蒙俄合作平台上寻找突破口，深圳市传统对外合作面向欧美、东南亚，对俄合作由于地理位置、文化差异等，也有很大潜力。 鹤岗市委书记张恩亮把思考的着力点也放在了“首先要解决思想观念问题”，他说，从思想和思路层面破题，才是抓住发展缓慢滞后、体制机制不活的“根”；二要通过创新驱动引领，运用新技术、新商业模式，在新增长领域培育中建立新的动力，干成新的事儿；三要把人才抓在手上，树立“不求所在、但求所用”的机制；四是政府要搭建好平台，激发市场主体充分交流。这四件事要齐头并进，通过增强市场意识、机遇意识、人才意识、拼搏意识，打破束缚发展的条条框框，把内生动力激发出来。 张恩亮说，鹤岗市和汕头市结对合作，前期已深入交流，接下来汕头市还将在年内派出考察团到鹤岗，进行进一步的洽谈对接。 同样，黑河市委书记秦恩亭感觉收获最大的是思想观念变化带来的冲击。他说，现在社会变化快、变化大，再用传统的思维模式来应对是跟不上的，必须有新视角新视野，来发现新的商机和发展路径。习近平总书记在党的十九大报告中提出，我国社会主要矛盾已经转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾。黑河要把绿色食品、旅游资源、康养资源、生态资源的供给优势发挥出来，推进供给侧结构性改革，也会形成未来经济的新增长点。黑河与珠海“手拉手”目前已有黑河特色商品体验馆这个合作项目16日开业，500多种商品与珠海市民面对面。另外，黑龙江特有冷水鱼进珠海、港澳，两市互为旅游目的地计划、开通直航、飞地园区计划、在珠海建立黑河旅游体验馆等都在紧锣密鼓推进中。“我们把能做的事先干起来。” 绥化市委书记曲敏说，深圳由小渔村跻身现代化大都市，是改革开放、创新驱动、人才战略、优化环境的成果，但最根本的是把解放思想、转变观念作为永恒主题。解放思想体现在鼓励敢闯敢试、先行先试、勇立潮头，又强调“四个自信”、“四个自觉”；体现在用好政府和市场这两只手，让市场发挥决定性作用，让企业在优胜劣汰中找到发展方向，也需要政府更好发挥作用，创造公平良好的市场环境；体现在既要强化领导带头，坚持亲力亲为，又要强化广泛参与，弘扬企业家精神和工匠精神。绥化和湛江将携手探索点对点、一对一、全覆盖、全方位合作模式。这次深圳之行与恒大签署了投资开发协议。下一步要认真把梳理的学习成果运用到工作中，增强工作主动性，撸起袖子抓落实。 创新驱动是激发活力“倍增器”，在动力转换中依靠创新奋起直追 佳木斯市委书记徐建国在考察期间偶遇一个小老乡韩彬。韩彬表达尽快回乡创业的强烈愿望，徐建国说，要搭建起青年人创业的平台吸引他们回乡有事儿干。广东在体制机制、科技创新等方面是非常领先的，所以保持着蓬勃发展的强劲活力，佳木斯在新技术方面有差距，这是未来对口合作空间。这次考察看了多家高科技型企业，转型发展要靠创新驱动“无中生有”，带动促进传统农业、畜牧业提质升级。徐建国认为当前对口合作摆在日程的第一位是人才交流。明年1月份，佳木斯将派10个委办局的干部到中山市挂职半年，感受市场经济发达地区的管理理念、管理模式，人才交流是观念的碰撞，交流回来后梳理工作思路就会按市场规则办事。企业之间的合作要创造空间，把高科技引入和优势资源结合起来。 七台河市委书记马志勇感触最深的是“活力”二字。他说，广东作为中国改革领头羊排头兵，发展得益于创新这个法宝，体制创新、业态创新、商业模式创新，创新无处不在。七台河作为资源型城市经济转型试点市，认识到自身差距和紧迫感，要在动力转换中依靠创新奋起直追。在与江门合作中，第一位是学习，学习创新的思维，学习不停顿的改革，学习政府的高效率和高质量的服务，学习在市场活力激发平台搭建上，政府多作为、善作为，打造好营商环境。今年3月份，七台河到江门学习政府审批提速，现在行政审批事项由过去的130天，压缩到32天。通过这件事我们认识到在干部教育培训领域，不但要学理念，更要学方法，锻造回来后能用得上的工作本领。此外，在优势领域抓合作方面，七台河矿产资源丰富，石墨、石墨烯应用领域需要和高新技术应用市场对接，绿色产品量小链短，要在食品、农副产品深加工找突破；而江门是制造业之都，汇聚了人力、财力、信息流和技术，双方合作势必大有可为。 着力打造现代产业新体系，推动产品与市场，资源与资本市场多层次对接，让市场主体充分交流 大庆市委书记韩立华告诉记者，广东黑龙江一南一北，地区发展和现代化产业体系的形成，发展的要素和条件相差比较大，也给我们合作提供了广阔空间，能够进一步提升，要把合作的具体方向落实，实现两地的互利共赢。大庆与惠州携手，下一步要在抓落实上下功夫，紧锣密鼓，马上要细化旅游、粮食、人才合作机制，深入推进两地共同发展。广东的现代化产业体系很强，在产业体系形成和构建上，要多借鉴广东一些经验，和企业多合作。我们要设立一个两个城市开发区的合作。大庆有两个国家级开发区，要拿出一块“飞地”，用广东的人才、资金、管理、技术和企业展开深度合作，用新体制机制、全新模式，在汽车、新材料、新能源、生物医药等领域，在“飞地经济”发展、产业园区的体制机制创新上多做一些实质性的推动。惠州在炼油和化工能力与大庆在“油头化尾”有共同的思路，市场互补、技术合作可以深入展开。 鸡西市委书记康志文说，我们和广东经济发展不在一个层面上，在这种情况下，我觉得这次龙江组织学习考察十分必要，来广东学习考察，第一要学习先进理念，解决思想观念问题，要解放思想，敢闯敢试敢干；第二要解决对科技、对技术创新重视不够的问题，广东发展经验看，产学研一体化使企业不断发展壮大；第三个问题，还是要培育市场主体，让企业家、企业唱主角，解决企业内生动力和创新发展的问题，要把企业群体培育起来，让经济得到快速发展；最后还要解决真抓实干的问题，要真落实，把落实抓到位，直到抓出成效。鸡西旅游产品和石墨烯新材料是优势，鸡西与肇庆对口合作，前期已经进行了充分对接，把各自的特点和优势亮出来，下一步要进一步找准互学互鉴的切入点，找到双赢的对接点，使合作得以深入发展和可持续。 差异化发展寻求优势互补合作共赢 伊春市委书记高环告诉记者，城市不同就要差异化发展。伊春城市定位在为这些先进地区大城市打造一个“后花园”，提供休闲、度假、旅游、科普甚至是研发基地。近几年，伊春致力于打造森林食品之都，着力构建绿色生态产业体系，充分释放林区绿色生态生产力。我们大力度探索碳汇经济，随着森林保护力度的加大，每年伊春森林资源净增长1000万立方米，希望能给现代化大城市提供碳产品，在节能减排、生态占补平衡上有合作空间。打好差异牌，服务于改革开放前沿城市的发展，是伊春转型的另一视角。高环说，这次考察学习非常开眼界，科技发展之迅速令人刮目相看，科技水平之高、新产品之多，伊春也期待用“大智移云”来提高和引领城市化和现代化水平，辐射现代化的“智慧之光”，提升城市品位，建智能城市，和东南沿海的城市群同步发展。 “差异越大，互补潜力就越大。”大兴安岭地委书记苏春雨认为，大兴安岭与广东沿海地区有着很大的差异性和互补性，比如大兴安岭拥有生产有机绿色食品最佳环境，生态环境是康养旅游最佳目的地等，这些都可以深度开发。要抓住这次对口合作的难得机遇，与广东揭阳市结合双方特点和优势，推进全方位多渠道交流。一是政府充分发挥联动引导作用，互派干部挂职学习，营造良好制度环境和政策体系，为两地企业创造良好的政商环境；二是着力推进产业互补发展，在绿色食品、生态旅游、生物制药和电子商务等方面广泛开展深层次合作，搭建平台，促进企业交流投资，加快产业项目建设，形成共融互利发展局面；三是通过发挥各自比较优势，使合作共赢实现可持续、能复制、结硕果。(作者：王坤)']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>65</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>黑龙江日报评论沿着总书记指明的方向奋勇前进二论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2018-10-09</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/201810/c03_814496.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['黑龙江日报评论：沿着总书记指明的方向奋勇前进 二论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神_牡丹江市人民政府', '黑龙江日报评论：沿着总书记指明的方向奋勇前进 二论学习贯彻习近平总书记考察黑龙江和深入推进东北振兴座谈会重要讲话精神', '思想的力量，总能标定前行的方向。习近平总书记考察东北三省，主持召开深入推进东北振兴座谈会并发表重要讲话，是统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局的重要部署，是贯彻落实党的十九大精神的重大举措，是东北改革发展进程中的重要里程碑，标志着东北振兴进入了推进全面振兴、全方位振兴的新时期。 习近平总书记重要讲话和重要指示精神，高屋建瓴、内涵丰富、思想深邃、博大精深，战略性、针对性、指导性极强，具有强大的真理力量和实践伟力，为东北振兴指明了前进方向。我们要把习近平总书记重要讲话和重要指示精神作为推动各项事业发展的强大思想武器，落实党中央关于东北振兴的一系列决策部署，坚持新发展理念，解放思想、锐意进取，瞄准方向、保持定力，深化改革、破解矛盾，扬长避短、发挥优势，以新气象新担当新作为推进黑龙江全面振兴、全方位振兴。 宏伟蓝图凝聚人心，苦干实干砥砺前行。自2016年习近平总书记两次对黑龙江发表重要讲话以来，黑龙江省委带领全省人民深入贯彻落实习近平总书记对我省重要讲话精神，特别是党的十九大以来，我省把深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，与习近平总书记对我省重要讲话精神贯通起来，牢牢把握“一条新路子”前进方向、“四个坚持”重大任务、“三长三短”辩证方法、“五个要发展”根本路径，联系地领会思想观点，系统地把握精髓要义，全面地认识实践要求，坚定信心、攻坚克难，取得了不平凡的成绩，龙江人民以奋斗者的姿态走进了新时代。 一切伟大的成就都是接续奋斗的结果，一切伟大的事业都需要在继往开来中推进。习近平总书记此次考察东北三省，主持召开深入推进东北振兴座谈会时强调，新时代东北振兴，是全面振兴、全方位振兴。“全面振兴、全方位振兴”目标，不仅仅是语义上的强化，而是对东北振兴更为准确的定位、更为殷切的嘱托、更为深沉的期许。“全面振兴、全方位振兴”的目标，是由中国特色社会主义进入新时代的历史方位决定的。东北地区是我国重要的工业和农业基地，维护国家国防安全、粮食安全、生态安全、能源安全、产业安全的战略地位十分重要，关乎国家发展大局。聚焦新时代目标任务、落实新时代战略部署，新时代东北振兴的新格局必然是全面振兴、全方位振兴。这是习近平总书记一次又一次考察调研、一遍又一遍分析研判的成果，这是从东北地区内因着眼、着手、着力的科学论断，是我们必须实现的目标。 习近平总书记既指明了前进的方向，又把脉开方，给出了“全面振兴、全方位振兴”的方法和路径，明确提出了深入推进东北振兴6个方面的要求。我们要深刻领会习近平总书记关于东北振兴的重要论述，把握科学的方法论，以优化营商环境为基础，全面深化改革；以培育壮大新动能为重点，激发创新驱动内生动力；科学统筹精准施策，构建协调发展新格局；更好支持生态建设和粮食生产，巩固提升绿色发展优势；深度融入共建“一带一路”，建设开放合作高地；更加关注补齐民生领域短板，让人民群众共享东北振兴成果。不断完善目标任务，逐项研究谋划，拿出务实举措，全力以赴、不折不扣地落实好新时代东北振兴的各项重点工作、重点任务。 方向既定，三军用命。只要沿着习近平总书记指明的方向，把习近平总书记重要讲话和重要指示精神转化为干事创业的理论之源、方法之源、信心之源、动力之源，瞄准方向、保持定力，扬长避短、发挥优势，一以贯之、久久为功，以逢山开路、遇水搭桥的拼搏精神，撸起袖子加油干，就一定能赢得历史性成就，就一定能实现黑龙江的振兴发展，就一定能为国家重大战略作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>65</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>黑龙江省党政代表团赴安徽学习考察并举行工作交流座谈会许勤韩俊出席座谈会并讲话</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-07-23</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100009/202307/c03_839900.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['黑龙江省党政代表团赴安徽学习考察并举行工作交流座谈会 许勤韩俊出席座谈会并讲话_牡丹江市人民政府', '黑龙江省党政代表团赴安徽学习考察并举行工作交流座谈会 携手推进更高水平跨区域协同发展 共同谱写中国式现代化建设新篇章 许勤韩俊出席座谈会并讲话 梁惠玲王清宪分别介绍情况 蓝绍敏唐良智出席 7月22日，黑龙江省党政代表团赴安徽省学习考察，并在合肥举行工作交流座谈会。 为深入贯彻习近平总书记重要讲话重要指示和党的二十大精神，学习借鉴安徽经验，协同落实国家战略，7月22日，黑龙江省党政代表团赴安徽省学习考察，并在合肥举行工作交流座谈会。省委书记、省人大常委会主任许勤出席座谈会并讲话，安徽省委书记韩俊主持座谈会并讲话。省委副书记、省长梁惠玲，安徽省委副书记、省长王清宪分别介绍两省经济社会发展情况。省政协主席蓝绍敏、安徽省政协主席唐良智出席。 7月22日，黑龙江省党政代表团到科大讯飞学习考察。 7月22日，黑龙江省党政代表团到合肥美亚光电学习考察。 7月22日，黑龙江省党政代表团到中科大先进技术研究院学习考察。 安徽是我国中部地区与长三角联动发展的桥头堡。近年来，安徽省委、省政府深入学习贯彻习近平总书记重要讲话重要指示精神，积极融入长三角一体化发展，加快打造具有重要影响力的“三地一区”，经济社会发展取得显著成效，形成了许多创新经验。我省党政代表团先后到科大讯飞、合肥美亚光电、中科大先进技术研究院等企业和科研单位考察，实地感受安徽跨越式发展的良好态势、干事创业的浓厚氛围，认真学习安徽在推进创新驱动、深化改革开放、优化产业结构、开展招商引资等方面经验做法。 座谈会上，许勤代表省委、省政府对安徽长期以来给予黑龙江的支持帮助表示感谢。他说，安徽坚定不移沿着习近平总书记指引的方向奋勇前行，扎实推进高质量发展，产业升级势头强劲，科技创新成果丰硕，体制机制持续优化，综合实力显著提升，展示出现代化美好安徽的壮丽图景。当前，黑龙江正深入学习贯彻习近平总书记重要讲话重要指示精神，着力建设质量龙江、创新龙江、开放龙江、绿色龙江、幸福龙江、勤廉龙江，加快推动全面振兴全方位振兴。龙皖两地合作基础良好、合作空间广阔，我们将认真学习安徽经验，主动对接长江经济带、长三角一体化发展战略，努力实现优势互补、共赢发展，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。深化产业对接协作，加强智能装备、航空航天、新能源汽车等领域务实合作，促进产业链供应链优化提升，在融入和服务构建新发展格局中实现高质量发展；强化科技协同创新，推进两地高校、科研院所联动攻关，畅通科技成果产业化路径，积极抢占未来发展制高点；加强现代农业合作，推进耕地保护、种质资源创新、农业农村改革等交流互鉴，在农业强国建设中体现担当作为；携手扩大对外开放，整合开放资源，做强跨境产业，积极开拓国际市场，推动更高水平跨区域协同发展，为中国式现代化建设作出新的更大贡献。 韩俊代表安徽省委、省政府对黑龙江省党政代表团的到来表示热烈欢迎。他说，近年来，黑龙江深入贯彻习近平总书记重要讲话重要指示精神，当好农业现代化建设排头兵、粮食安全的“压舱石”，数字经济、生物经济、冰雪经济、创意设计等新兴产业蓬勃发展，推动振兴发展不断取得新突破，创造出的好经验好做法值得我们学习借鉴。安徽认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，充分发挥创新活跃强劲、制造特色鲜明、生态资源良好、内陆腹地广阔等优势，抢抓长三角一体化发展等重大战略机遇，全力做好“科技+产业+人才+金融”大文章，推动思想大解放、环境大优化、能力大提升、作风大转变、任务大落实，加快制造强省、农业强省、科技强省、人才强省、教育强省、文化强省建设，在全国区域发展格局中的地位形象显著提升，在国家发展全局中的战略地位进一步凸显。希望两省在种业振兴、现代畜牧业发展、农产品精深加工上谋实合作事项，共同为建设农业强国作贡献。在基础研究和应用基础研究、大科学装置共享、科技成果转化和产业化上加强合作，共同助力国家高水平科技自立自强。在发展先进制造业上共同做好延链、补链、强链文章。在文旅融合发展上加强资源互动、项目互鉴、客源互引。在开放平台上加强共用互享，不断提升开放型经济发展水平。 省领导李显刚、余建、王岚、徐向国、张亚中；安徽省领导虞爱华、张韵声、费高云、张红文、陶明伦参加有关活动。 各市（地）和省直有关部门负责同志参加活动。（记者 李国玉 摄影 邵国良）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>65</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>学习之路习近平在河北考察并主持召开深入推进京津冀协同发展座谈会</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202305/5532.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在河北考察并主持召开深入推进京津冀协同发展座谈会_牡丹江市人民政府', '新华社石家庄5月12日电 中共中央总书记、国家主席、中央军委主席习近平近日在河北考察，主持召开深入推进京津冀协同发展座谈会并发表重要讲话。他强调，要坚定信心，保持定力，增强抓机遇、应挑战、化危机、育先机的能力，统筹发展和安全，以更加奋发有为的精神状态推进各项工作，推动京津冀协同发展不断迈上新台阶，努力使京津冀成为中国式现代化建设的先行区、示范区。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会并发表重要讲话。新华社记者 申宏 摄', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、国务院副总理丁薛祥出席座谈会。中共中央政治局常委、中央办公厅主任蔡奇陪同考察并出席座谈会。', '5月11日至12日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，先后来到沧州、石家庄等地，深入农村、港口、科研单位等，实地了解京津冀协同发展情况。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察时，同种植户、农技专家亲切交流。新华社记者 殷博古 摄', '11日上午，习近平来到沧州市，考察了黄骅市旧城镇仙庄片区旱碱地麦田，了解盐碱地整治、旱碱麦种植推广及产业化情况。习近平走进麦田，仔细察看小麦长势，并向正在田里劳作的种植户、农技专家询问旱碱麦产量、价格、品质、收益等。习近平指出，开展盐碱地综合利用，是一个战略问题，必须摆上重要位置。要立足我国盐碱地多、开发潜力大的实际，发挥科技创新的关键作用，加大盐碱地改造提升力度，加强适宜盐碱地作物品种开发推广，有效拓展适宜作物播种面积，积极发展深加工，做好盐碱地特色农业这篇大文章。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察时，同种植户、农技专家亲切交流。新华社记者 李学仁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察。新华社记者 李学仁 摄', '11日下午，习近平来到黄骅港煤炭港区码头，了解河北省港口整合发展和黄骅港生产经营、发展规划等情况。习近平强调，河北区位优势独特，海运条件便利，要持续推进港口转型升级和资源整合，优化港口功能布局，主动对接京津冀协同发展、高标准高质量建设雄安新区、共建“一带一路”等国家重大战略需求，在推动区域经济协调发展、建设现代化产业体系中发挥更大作用。黄骅港作为我国西煤东运、北煤南运的重要枢纽港口，要加强港口能力建设，创新管理体制机制，打造多功能、综合性、现代化大港。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日下午，习近平在沧州市黄骅港煤炭港区码头考察。新华社记者 李学仁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日下午，习近平在沧州市黄骅港煤炭港区码头考察时，同码头工作人员、船务人员亲切交流。新华社记者 李学仁 摄', '12日上午，习近平来到位于石家庄市的中国电科产业基础研究院考察调研，了解企业发展历程及产品研发、加强军民融合发展、提升自主保障能力建设等情况，走进生产车间察看芯片生产流程。习近平指出，加快建设科技强国是全面建设社会主义现代化国家、全面推进中华民族伟大复兴的战略支撑，必须瞄准国家战略需求，系统布局关键创新资源，发挥产学研深度融合优势，不断在关键核心技术上取得新突破。他勉励科技工作者再接再厉、勇攀科技高峰，不断攻克前沿技术，打造更多科技自立自强的大国重器。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院考察。新华社记者 燕雁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院生产车间考察。新华社记者 申宏 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院考察时，同科技工作者亲切交流。新华社记者 燕雁 摄', '习近平随后考察了石家庄市国际生物医药园规划展馆，听取石家庄生物医药产业发展情况汇报，察看医药产品展示，了解药品研发生产情况。习近平强调，生物医药产业是关系国计民生和国家安全的战略性新兴产业。要加强基础研究和科技创新能力建设，把生物医药产业发展的命脉牢牢掌握在我们自己手中。要坚持人民至上、生命至上，研发生产更多适合中国人生命基因传承和身体素质特点的“中国药”，特别是要加强中医药传承创新发展。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在石家庄市国际生物医药园规划展馆考察。新华社记者 燕雁 摄', '12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会。河北省委书记倪岳峰、天津市委书记陈敏尔先后发言，北京市委书记尹力提交了书面发言，就深入推进京津冀协同发展汇报工作情况、提出意见建议。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会并发表重要讲话。新华社记者 李学仁 摄', '听取大家发言后，习近平发表了重要讲话。他对党的十九大以来河北经济社会发展取得的成绩表示肯定，希望河北全面学习贯彻党的二十大精神，完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，在推进创新驱动发展中闯出新路子，在推进京津冀协同发展和高标准高质量建设雄安新区中彰显新担当，在推进全面绿色转型中实现新突破，在推进深化改革开放中培育新优势，在推进共同富裕中展现新作为，加快建设经济强省、美丽河北，奋力谱写中国式现代化建设河北篇章。', '习近平强调，党的十九大以来，按照党中央决策部署，京津冀3省市切实履行主体责任，中央有关部门和单位大力支持配合，做了大量卓有成效的工作，京津冀协同发展取得新的显著成效，疏解北京非首都功能初见成效，雄安新区建设取得重大阶段性成果，北京城市副中心高质量发展步伐加快，“轨道上的京津冀”加速形成，美丽宜居京津冀取得丰硕成果，科技创新和产业融合发展水平持续提升。实践证明，党中央关于京津冀等重大区域发展战略是符合我国新时代高质量发展需要的，是推进中国式现代化建设的有效途径。', '习近平指出，要牢牢牵住疏解北京非首都功能这个“牛鼻子”，坚持积极稳妥、稳中求进，控增量和疏存量相结合，内部功能重组和向外疏解转移两手抓，有力有序有效推进疏解工作。要着力抓好标志性项目向外疏解，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等。要继续完善疏解激励约束政策体系，充分发挥市场机制作用，通过市场化、法治化手段增强向外疏解的内生动力。要进一步从源头上严控北京非首都功能增量。', '习近平强调，要推动北京“新两翼”建设取得更大突破。北京城市副中心建设要处理好同雄安新区的关系，“两翼”要协同发力，有效解决北京“大城市病”问题。要处理好同中心城区的关系，实现以副辅主、主副共兴。要加快推进第二批北京市属行政企事业单位迁入副中心，腾出的空间主要用于加强对首都核心功能的服务保障。要处理好同周边地区的关系，带动周边交界地区高质量发展。', '习近平指出，京津冀作为引领全国高质量发展的三大重要动力源之一，拥有数量众多的一流院校和高端研究人才，创新基础扎实、实力雄厚，要强化协同创新和产业协作，在实现高水平科技自立自强中发挥示范带动作用。要加快建设北京国际科技创新中心和高水平人才高地，着力打造我国自主创新的重要源头和原始创新的主要策源地。要构建产学研协作新模式，提升科技成果区域内转化效率和比重。要强化企业的创新主体地位，形成一批有自主知识产权和国际竞争力的创新型领军企业。要巩固壮大实体经济根基，把集成电路、网络安全、生物医药、电力装备、安全应急装备等战略性新兴产业发展作为重中之重，着力打造世界级先进制造业集群。', '习近平强调，推进京津冀协同发展，最终要体现到增进人民福祉、促进共同富裕上。要大兴调查研究之风，深入了解群众需求，切实解决广大百姓关心关切的利益问题，不断提高人民群众的获得感、幸福感、安全感。要加快推进公共服务共建共享，强化就业优先政策，促进京津冀地区更加充分更高质量就业。要推动京津优质中小学基础教育资源同河北共享，深化区域内高校师资队伍、学科建设、成果转化等方面合作。要推进医联体建设，推动京津养老项目向河北具备条件的地区延伸布局。要持续抓好北方防沙带等生态保护和修复重点工程建设，持续推进绿色生态屏障建设等重大生态工程。', '习近平指出，要继续加快推进交通等基础设施建设，深入推进区域内部协同。要唱好京津“双城记”，拓展合作广度和深度，共同打造区域发展高地，在建设京津冀世界级城市群中发挥辐射带动和高端引领作用。要把北京科技创新优势和天津先进制造研发优势结合起来，加强关键核心技术联合攻关，共建京津冀国家技术创新中心，提升科技创新增长引擎能力。河北要发挥环京津的地缘优势，从不同方向打造联通京津的经济廊道，北京、天津要持续深化对河北的帮扶，带动河北有条件的地区更好承接京津科技溢出效应和产业转移。要进一步推进体制机制改革和扩大对外开放，下大气力优化营商环境，积极同国内外其他地区沟通对接，打造全国对外开放高地。', '习近平强调，深入开展主题教育是今年党建工作的重中之重。北京、天津、河北3省市党委要认真贯彻落实党中央的部署和要求，切实抓好主题教育，进一步增强各级党组织的政治功能和组织功能，为推进京津冀协同发展提供坚强保证。', '李强在讲话中表示，要认真学习领会、深入贯彻落实习近平总书记重要讲话精神，坚持在大局下思考和行动，更加有力有效推进京津冀协同发展。要突出首要任务，围绕疏解北京非首都功能，推动资源、政策、力量聚焦，确保标志性疏解项目取得明显成效。要把握区域差异，着力推动优势互补，既补各自的短板，又锻造共同的长板，把发展落差的势能变成协同发展的动能，让群众有更强的获得感。要进一步做实工作机制，形成更为紧密的协同推进格局。', '丁薛祥表示，要认真学习贯彻习近平总书记重要指示，坚持以空气质量明显改善为刚性要求，持之以恒做好大气污染防治工作，推动京津冀协同发展迈上新水平。加快产业结构优化升级，坚决遏制高耗能、高排放、低水平项目盲目发展；促进能源结构低碳转型，加强煤炭清洁高效利用，大力发展新能源和清洁能源；调整优化运输结构，从源头上减少燃油污染排放；持续深化大气污染联防联控，压实地方政府责任，形成齐抓共管合力。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹及主题教育中央第二指导组、中央和国家机关有关部门、有关地方、有关企业负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>65</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>省委常委会召开会议传达学习习近平总书记在辽宁考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c105089/202208/c03_835388.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['省委常委会召开会议传达学习习近平总书记在辽宁考察时的重要讲话精神_牡丹江市人民政府', '省委常委会召开会议传达学习习近平总书记在辽宁考察时的重要讲话精神 许勤主持并讲话 8月19日上午，省委常委会召开会议，传达学习习近平总书记在辽宁考察时的重要讲话精神，研究贯彻落实意见，部署相关工作。 省委书记、省人大常委会主任许勤主持会议并讲话。 会议指出，党的十八大以来，以习近平同志为核心的党中央高度重视东北振兴，实施深入推进东北振兴战略，出台一系列重要政策举措。习近平总书记对东北振兴寄予厚望，先后6次到东北三省考察，两次主持召开东北振兴座谈会，多次发表重要讲话作出重要指示，为东北全面振兴指明了前进方向、提供了根本遵循。在党的二十大召开前夕，习近平总书记再次踏上东北大地，作出重要指示，充分体现了对新时代东北振兴的高度重视，对东北人民的亲切关怀，极大地提振了东北人民的信心和士气。 会议强调，全省各地各部门各级领导干部要深入学习贯彻习近平总书记在辽宁考察时的重要讲话精神，与贯彻落实习近平总书记对我省和东北地区作出的一系列重要讲话重要指示精神结合起来，全面落实党中央深入推进东北振兴战略部署，努力在新时代东北振兴上展现更大担当和作为，奋力开创龙江振兴发展新局面，以实际行动迎接党的二十大胜利召开。一要传承红色基因。推动党史学习教育常态化长效化，引导广大党员、干部把学习党史作为必修课和常修课，讲好党的故事、革命的故事、英雄的故事。要用心用情做好老战士老同志和革命烈士亲属优抚等工作，让他们体会到党的关怀和温暖。要牢记“江山就是人民、人民就是江山”，始终保持同人民群众的血肉联系，扎实推进共同富裕，以为民造福的实际成效不断提升人民群众的获得感。二要坚定不移推动高质量发展。贯彻党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，服务和融入新发展格局，坚定不移走中国式现代化道路，按照省第十三次党代会部署，着力建设“六个龙江”、推进“八个振兴”。积极转方式调结构，构建现代产业体系。大力实施科教振兴计划，加快推进科技成果产业化行动，为实现高水平科技自立自强作出龙江贡献。三要坚持生态优先、绿色发展。深入实施生态振兴计划，统筹推进山水林田湖草沙一体化保护和修复，协同推进经济高质量发展和生态环境高水平保护，一体推进治山、治水、治城，稳妥推进“双碳”建设，加快打造“绿水青山就是金山银山，冰天雪地也是金山银山”实践地，让绿色低碳成为龙江最鲜明的特质和最靓丽的底色。四要不断增进民生福祉。大力发展“一老一幼”事业和产业，深入实施民生振兴计划，解决好就业、收入、社保、住房、人居环境等重点民生问题，提升社区服务功能，构建基层社会治理和服务体系，不断提升老百姓的幸福指数。五要更好统筹发展和安全。要提高政治站位，层层压实各级防汛责任，深入开展风险隐患排查治理，做好预警避险准备，强化救灾应急处置，抓好中小河流、中小水库、山洪泥石流等地质灾害易发区、城市易涝区等重点部位防守，提高洪涝灾害防御和应急抢险救援能力。要坚持“外防输入、内防反弹”总策略和“动态清零”总方针，精准落实常态化疫情防控措施，坚决守住来之不易的疫情防控成果。要从严从细抓好安全生产，加强信访维稳工作，防范整治各类风险隐患，营造安全稳定社会环境。 会议还研究了其他事项。（记者 曹忠义 李国玉）']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>65</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>学习之路习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202305/5531.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会_牡丹江市人民政府', '新华社河北雄安新区5月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 殷博古 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 燕雁 摄', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察并出席座谈会。', '5月10日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，深入雄安新区的高铁站、社区、建设工地等，就高标准高质量推进雄安新区建设进行调研。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站考察。新华社记者 李学仁 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站候车大厅同旅客亲切交流。新华社记者 申宏 摄', '当天上午，习近平乘高铁前往雄安新区，抵达后首先考察了雄安站的建设运行情况。雄安站是雄安新区开工建设的第一个重大基础设施项目，具有标志性意义。习近平先后察看站台、候车大厅、站外广场，了解雄安站建设运营和所在的昝岗片区规划建设情况。习近平指出，雄安站是雄安新区的交汇车站，要进一步完善联通雄安站和雄安新区的交通“微细血管”，提升人流物流聚集和疏散的效率。要把昝岗片区建设成为高端高新产业集聚区，让各方来客一到雄安，就能感受到雄安新区扑面而来的现代化新气象。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区党群服务中心考察。新华社记者 李学仁 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区食堂同就餐的社区老人亲切交流。新华社记者 李学仁 摄', '习近平随后乘车来到容东片区南文营社区。该社区安置了安新、容城两县回迁群众5000多人。习近平先后来到党群服务中心和社区食堂，同社区工作人员、现场办事群众、就餐的社区老人等亲切交流，仔细查看民情台账，对社区开展的便民养老服务等表示肯定。习近平强调，我一直牵挂着回迁群众，看到大家生活好，我很欣慰。建设好雄安新区，重要的是衔接好安居和乐业，让群众住得稳、过得安、有奔头。要同步推进城市治理现代化，从一开始就下好“绣花”功夫，积极推进基本公共服务均等化，构筑新时代宜业宜居的“人民之城”。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区回迁居民李敬和家中看望。新华社记者 李学仁 摄', '习近平走进回迁居民李敬和家中看望。李敬和告诉总书记，2021年11月迁入新居，房子宽敞明亮，住得十分舒心，日子越过越红火。习近平强调，建设雄安新区是党中央作出的重大战略决策，大家响应国家号召，积极配合，为国家战略实施作出了贡献。他勉励年轻一代在强国建设、民族复兴的进程中，坚定信心，学好本领，造福桑梓，做社会主义事业的建设者和接班人。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区考察时向社区居民挥手致意。新华社记者 殷博古 摄', '临别时，居民们高声欢呼“总书记好”，习近平向大家挥手致意。他深情地对大家说，河北是我工作过的地方，我对这里充满感情，把这里建设好是我的心愿。建设雄安新区是千年大计、国家大事，既不能心浮气躁，也不能等靠要，要踏实努力，久久为功。', '雄安城际站枢纽位于雄安新区启动区的核心位置。习近平来到雄安城际站及国贸中心项目建设现场，看沙盘、登平台，远眺建设工地，了解启动区重大基础设施项目及重点疏解项目规划建设进展情况。习近平指出，交通是现代城市的血脉。血脉畅通，城市才能健康发展。要在建设立体化综合交通网络上下功夫，在充分利用地下空间上下功夫，着力打造一个没有“城市病”的未来之城，真正把高标准的城市规划蓝图变为高质量的城市发展现实画卷。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安城际站及国贸中心项目建设现场考察。新华社记者 燕雁 摄', '下午，习近平来到雄安会展中心雄安厅，结合沙盘、视频短片，听取雄安新区整体规划建设进展介绍，了解白洋淀生态环境治理和保护及清淤疏浚、百淀连通等工作进展情况。习近平强调，白洋淀生态环境治理和保护，功在当代、利在千秋，必须统筹谋划，扎实推进。', '随后，习近平在会展中心三层多功能厅主持召开高标准高质量推进雄安新区建设座谈会。国家发展改革委主任郑栅洁、河北省委书记倪岳峰、雄安新区党工委书记张国华先后发言。中国卫星网络集团有限公司、中国建筑集团有限公司主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，在党中央坚强领导下，在中央有关部门和北京、天津等地大力支持下，河北省积极履行主体责任，雄安新区党工委和管委会认真履行属地责任，扎实推动各项工作，雄安新区建设取得重大阶段性成果，新区建设和发展顶层设计基本完成，基础设施建设取得重大进展，疏解北京非首都功能初见成效，白洋淀生态环境治理成效明显，深化改革开放取得积极进展，产业和创新要素聚集的条件逐步完善，回迁安置工作有序推进。短短6年里，雄安新区从无到有、从蓝图到实景，一座高水平现代化城市正在拔地而起，堪称奇迹。这些成绩是在世界百年未有之大变局、3年新冠疫情的严峻形势下取得的，殊为不易。实践证明，党中央关于建设雄安新区的重大决策是完全正确的，各方面工作是扎实有效的。', '习近平强调，要完整、准确、全面贯彻落实党中央关于建设雄安新区的战略部署，深刻领悟党中央决策的重大现实意义和深远历史意义，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，提高政治站位，保持历史耐心，处理好近期目标和中远期目标、城市建设速度和人口聚集规模、产业转移和产业升级、政府和市场、承接北京非首都功能疏解和城市自身发展、城市建设和周边乡村振兴等重大关系，确保雄安新区建设和发展的正确方向。', '习近平指出，要扎实推动疏解北京非首都功能各项任务落实，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等，着手谋划金融机构、科研院所、事业单位的疏解转移。要继续完善疏解激励约束政策体系。对有关疏解人员的子女教育、医疗、住房、薪酬、社保、医保、公积金等政策，要按照老人老办法、新人新办法的原则要求，进一步细化实化政策措施，确保疏解单位和人员享受到实实在在的好处。要坚持市场机制和政府引导相结合，项目和政策两手抓，通过市场化、法治化手段，增强非首都功能向外疏解的内生动力。', '习近平强调，要全面落实创新驱动发展战略，推动各领域改革开放前沿政策措施和具有前瞻性的创新试点示范项目在雄安落地，努力建设新功能、形成新形象、发展新产业、聚集新人才、构建新机制，使雄安新区成为新时代的创新高地和创业热土。要打造市场化、法治化、国际化一流营商环境，研究出台一揽子特殊支持政策，广泛吸引、聚集国内外力量和资本参与雄安新区建设和发展，形成人心向往、要素汇聚、合力共建、共同发展的生动局面。要广泛运用先进科学技术，着力加强科技创新能力建设，加大科技成果转化力度，积极发展新业态、新模式，培育新增长点、形成新动能，把智能、绿色、创新打造成为雄安新区的亮丽名片。要贯彻绿水青山就是金山银山的理念，坚持绿色化、低碳化发展，把雄安新区建设成为绿色发展城市典范。', '习近平指出，要优化健全雄安新区领导体制和管理机制，分阶段、分步骤、稳妥有序推动新区向城市管理体制转变。要加强新区各级领导班子和干部队伍建设，提高干部人才队伍整体素质和专业化水平。要完善新区干部考核评价机制，激励广大党员干部敢担当、勇创新、善作为。', '习近平强调，要坚持人民城市人民建、人民城市为人民，解决好雄安新区干部群众关心的切身利益问题，让人民群众从新区建设发展中感受到实实在在的获得感、幸福感。要坚持就业优先，完善就业创业引导政策，加强对新区劳动力的再就业培训。要推进城乡统筹发展，在缩小城乡差距、推动城乡融合发展、促进全体人民共同富裕上闯出一条新路来。', '习近平指出，雄安新区党工委及各级党组织要认真开展主题教育，并以此为契机，加强调查研究，推动思想大解放、能力大提升、作风大转变、工作大落实，进一步提升政治功能和组织功能。要持续纠治“四风”，一体推进不敢腐、不能腐、不想腐，以“廉洁雄安”保障“雄安质量”。', '李强在讲话中表示，高标准高质量推进雄安新区建设，最根本最关键的是要把习近平总书记重要指示和党中央决策部署学习领会好、贯彻落实好。要有“千年大计”的定力，牢牢把握雄安新区的功能定位和使命任务，稳扎稳打、久久为功。要有“只争朝夕”的干劲，把已明确的、必须做的事紧紧抓在手上，不等不拖、紧张快干，加快承接北京非首都功能疏解，扎实推进基础设施建设，着力构建现代化产业体系，充分发挥各方面积极性，推动各项工作不断取得新进展。', '丁薛祥表示，要深入学习贯彻习近平总书记重要讲话精神，把科技创新作为雄安新区高质量建设和发展的根本，着力打造自主创新和原始创新重要策源地，搭建一流创新平台，开展高水平科技创新；着力推动创新链产业链深度融合，围绕产业链部署创新链，加大科技成果转化力度，促进高新技术产业发展；着力建设京津冀协同创新共同体，创新利益分享模式，吸纳和集聚更多创新要素资源参与推动雄安新区高质量发展。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹、姜信治及中央和国家机关有关部门、军队有关单位、河北省、雄安新区、有关企业负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>65</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>学习之路习近平在江苏考察时强调在推进中国式现代化中走在前做示范谱写强富美高新江苏现代化建设新篇章</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100181/202307/5547.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['【学习之路】习近平在江苏考察时强调 在推进中国式现代化中走在前做示范 谱写“强富美高”新江苏现代化建设新篇章_牡丹江市人民政府', '【学习之路】习近平在江苏考察时强调 在推进中国式现代化中走在前做示范 谱写“强富美高”新江苏现代化建设新篇章', '习近平在江苏考察时强调 在推进中国式现代化中走在前做示范 谱写“强富美高”新江苏现代化建设新篇章 蔡奇陪同考察 新华社南京7月7日电 中共中央总书记、国家主席、中央军委主席习近平近日在江苏考察时强调，江苏拥有产业基础坚实、科教资源丰富、营商环境优良、市场规模巨大等优势，有能力也有责任在推进中国式现代化中走在前、做示范。要完整准确全面贯彻新发展理念，继续在改革创新、推动高质量发展上争当表率，在服务全国构建新发展格局上争做示范，在率先实现社会主义现代化上走在前列，奋力推进中国式现代化江苏新实践，谱写“强富美高”新江苏现代化建设新篇章。 7月5日至7日，习近平在江苏省委书记信长星和省长许昆林陪同下，先后来到苏州、南京等地，深入工业园区、企业、历史文化街区、科学实验室等进行调研。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州工业园区考察。新华社记者 谢环驰 摄 5日下午，习近平抵达苏州后，首先乘车前往苏州工业园区考察。在园区展示中心，习近平听取苏州市产业发展和园区整体情况介绍，察看创新发展成果展示。习近平强调，高科技园区在科技自立自强中承担着重大而光荣的历史使命，要加强科技创新和产业创新对接，加强以企业为主导的产学研深度融合，提高科技成果转化和产业化水平，不断以新技术培育新产业、引领产业升级。要继续扩大国际合作，努力打造开放创新的世界一流高科技园区。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州工业园区考察。新华社记者 谢环驰 摄 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州工业园区考察。新华社记者 鞠鹏 摄 随后，习近平来到苏州华兴源创科技股份有限公司考察。习近平走进展厅、研发车间、光电实验室，察看产品研发、生产、测试流程，询问企业设备产品的性能、用途、市场等情况。看到企业研发人员都是年轻人，习近平十分欣慰。他说，国家现代化建设为年轻人提供了广阔舞台，大家正当其时，要把握历史机遇，大显身手，勇攀科技高峰，将来你们一定会为自己对民族复兴所作的贡献而自豪。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州华兴源创科技股份有限公司考察。新华社记者 谢环驰 摄 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州华兴源创科技股份有限公司，同企业年轻研发人员亲切交流。新华社记者 鞠鹏 摄 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州华兴源创科技股份有限公司考察。新华社记者 谢环驰 摄 位于苏州古城东北隅的平江历史文化街区，距今已有2500多年历史。6日上午，习近平来到这里考察，详细听取苏州古城保护及平江历史文化街区保护、修缮、利用情况汇报，步行察看古街风貌，观看苏绣制作，体验年画印刷。他说，中华优秀传统文化代代相传，表现出的韧性、耐心、定力，是中华民族精神的一部分。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日上午，习近平在苏州平江历史文化街区考察。新华社记者 鞠鹏 摄 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日上午，习近平在苏州平江历史文化街区，同当地居民和游客亲切交流。新华社记者 燕雁 摄 街边小广场上，曲乐悠扬，当地居民和游客正在欣赏苏州评弹表演。看到总书记来了，大家纷纷向总书记问好。习近平饶有兴致地同大家一起观看表演，他对大家说，昨天我看了工业园区，今天又看了传统文化街区，到处都是古迹、名胜、文化，生活在这里很有福气。苏州在传统与现代的结合上做得很好，不仅有历史文化传承，而且有高科技创新和高质量发展，代表未来的发展方向。他对当地负责同志讲，平江历史文化街区是传承弘扬中华优秀传统文化、加强社会主义精神文明建设的宝贵财富，要保护好、挖掘好、运用好，不仅要在物质形式上传承好，更要在心里传承好。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察紫金山实验室。新华社记者 谢环驰 摄 当天下午，习近平在南京市考察调研。他来到紫金山实验室，走进展厅、6G综合实验室，详细了解推进重大科技任务攻关等情况。习近平强调，现在信息技术飞速发展，颠覆性技术随时可能出现，要走求实扎实的创新路子，为实现高水平科技自立自强立下功勋。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察紫金山实验室时，同科研人员亲切交流。新华社记者 谢环驰 摄 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察紫金山实验室。新华社记者 谢环驰 摄 南瑞集团有限公司是国家电网公司下属的能源互联网领域高科技企业。习近平来到集团考察调研，听取南京市打造智能电网国家先进制造业集群总体情况介绍，察看企业自主可控技术产品展示。在企业智能制造生产区，习近平详细了解企业开展核心技术攻关，服务电网安全、电力保供和能源转型等情况。他指出，能源保障和安全事关国计民生，是须臾不可忽视的“国之大者”。要加快推动关键技术、核心产品迭代升级和新技术智慧赋能，提高国家能源安全和保障能力。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察南瑞集团有限公司。新华社记者 谢环驰 摄 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察南瑞集团有限公司。新华社记者 谢环驰 摄 离开企业时，习近平勉励年轻研发人员说，大家意气风发、朝气蓬勃，要立志高远、脚踏实地，一步一步往前走，以十年磨一剑的韧劲，以“一辈子办成一件事”的执着，攻关高精尖技术，成就有价值的人生。 7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察南瑞集团有限公司时，同年轻研发人员亲切交流。新华社记者 鞠鹏 摄 7日上午，习近平听取了江苏省委和省政府工作汇报，对江苏各项工作取得的成绩给予肯定，希望江苏在科技创新上取得新突破，在强链补链延链上展现新作为，在建设中华民族现代文明上探索新经验，在推进社会治理现代化上实现新提升。 习近平指出，中国式现代化关键在科技现代化。江苏要在科技创新上率先取得新突破，打造全国重要的产业科技创新高地，使高质量发展更多依靠创新驱动的内涵型增长。要强化企业科技创新主体地位，促进创新要素向企业集聚，不断提高科技成果转化和产业化水平。要深化科技体制改革和人才发展体制机制改革，形成支持全面创新的基础制度，多元化加大科技投入，加强知识产权法治保障，充分激发各类人才创新活力。 习近平强调，要把坚守实体经济、构建现代化产业体系作为强省之要，巩固传统产业领先地位，加快打造具有国际竞争力的战略性新兴产业集群，推动数字经济与先进制造业、现代服务业深度融合，全面提升产业基础高级化和产业链现代化水平，加快构建以先进制造业为骨干的现代化产业体系。要畅通国内国际双循环，积极打通堵点、接通断点，不断创新吸引外资、扩大开放的新方式新举措，建设具有世界聚合力的双向开放枢纽，推动外贸创新发展，不断巩固和拓展国际市场。 习近平指出，建设中华民族现代文明，是推进中国式现代化的必然要求，是社会主义精神文明建设的重要内容。江苏要加强优秀传统文化的保护传承和创新发展，积极参与建设长江和大运河两大国家文化公园。要大力发展现代科技、教育事业，全面提升人民群众的科学文化素质。要繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，扎实开展城乡精神文明创建，加强公民道德建设，推进书香社会建设，提高社会现代文明程度。 习近平强调，江苏必须在保障和改善民生、推进社会治理现代化上走在前列。要加快健全社会保障体系，健全就业促进机制和就业公共服务体系，做好重点群体就业工作。要坚持和发展新时代“枫桥经验”、“浦江经验”，完善社会治理体系，健全城乡基层治理体系和乡村治理协同推进机制，推进社会治理数字化。要推进应急管理体系和能力现代化，深入开展安全生产专项整治，坚决防范重特大安全事故发生。 习近平指出，全国即将进入“七下八上”防汛关键期，江河湖库将面临主汛期洪涝灾害的严重威胁。同时，一些地方旱情严重，森林火灾风险加大。各地区各部门要立足于防大汛、抗大旱、救大灾，坚持人民至上、生命至上，守土有责、守土负责、守土尽责，切实把保障人民生命财产安全放到第一位，强化灾害隐患巡查排险，提前做好各种应急准备，努力将各类损失降到最低。交通运输部门要加强重要基础设施安全防护，能源和电力部门尤其是央企要全力做好能源电力保供工作，确保经济社会运转不受大的影响。 习近平强调，主题教育开展以来，各地区各部门各单位全面抓深抓实各项重点措施，取得较好效果。各级党组织要教育引导党员、干部落实“重实践”要求，坚持学思用贯通、知信行统一，匡正干的导向，增强干的动力，形成干的合力，在以学促干上取得实实在在的成效。一是树牢造福人民的政绩观，坚持以人民为中心的发展思想，坚持高质量发展，不搞贪大求洋、盲目蛮干、哗众取宠；坚持出实招求实效，不搞华而不实、投机取巧、数据造假；坚持打基础利长远，不搞急功近利、竭泽而渔、劳民伤财。二是鼓足干事创业的精气神，恪尽职守、担当作为，迎难而上、敢于斗争，严肃整治拈轻怕重、躺平甩锅、敷衍塞责、得过且过等消极现象，完善担当作为激励和保护机制。三是形成狠抓落实的好局面，不折不扣贯彻落实党中央决策部署，积极主动抓落实，聚合众力抓落实，以钉钉子精神抓落实，聚焦实际问题抓落实，在抓落实上取得新实效。 中共中央政治局常委、中央办公厅主任蔡奇陪同考察。 李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第六指导组负责同志参加汇报会。', '新华社南京7月7日电 中共中央总书记、国家主席、中央军委主席习近平近日在江苏考察时强调，江苏拥有产业基础坚实、科教资源丰富、营商环境优良、市场规模巨大等优势，有能力也有责任在推进中国式现代化中走在前、做示范。要完整准确全面贯彻新发展理念，继续在改革创新、推动高质量发展上争当表率，在服务全国构建新发展格局上争做示范，在率先实现社会主义现代化上走在前列，奋力推进中国式现代化江苏新实践，谱写“强富美高”新江苏现代化建设新篇章。', '7月5日至7日，习近平在江苏省委书记信长星和省长许昆林陪同下，先后来到苏州、南京等地，深入工业园区、企业、历史文化街区、科学实验室等进行调研。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州工业园区考察。新华社记者 谢环驰 摄', '5日下午，习近平抵达苏州后，首先乘车前往苏州工业园区考察。在园区展示中心，习近平听取苏州市产业发展和园区整体情况介绍，察看创新发展成果展示。习近平强调，高科技园区在科技自立自强中承担着重大而光荣的历史使命，要加强科技创新和产业创新对接，加强以企业为主导的产学研深度融合，提高科技成果转化和产业化水平，不断以新技术培育新产业、引领产业升级。要继续扩大国际合作，努力打造开放创新的世界一流高科技园区。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州工业园区考察。新华社记者 鞠鹏 摄', '随后，习近平来到苏州华兴源创科技股份有限公司考察。习近平走进展厅、研发车间、光电实验室，察看产品研发、生产、测试流程，询问企业设备产品的性能、用途、市场等情况。看到企业研发人员都是年轻人，习近平十分欣慰。他说，国家现代化建设为年轻人提供了广阔舞台，大家正当其时，要把握历史机遇，大显身手，勇攀科技高峰，将来你们一定会为自己对民族复兴所作的贡献而自豪。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州华兴源创科技股份有限公司考察。新华社记者 谢环驰 摄', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是5日下午，习近平在苏州华兴源创科技股份有限公司，同企业年轻研发人员亲切交流。新华社记者 鞠鹏 摄', '位于苏州古城东北隅的平江历史文化街区，距今已有2500多年历史。6日上午，习近平来到这里考察，详细听取苏州古城保护及平江历史文化街区保护、修缮、利用情况汇报，步行察看古街风貌，观看苏绣制作，体验年画印刷。他说，中华优秀传统文化代代相传，表现出的韧性、耐心、定力，是中华民族精神的一部分。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日上午，习近平在苏州平江历史文化街区考察。新华社记者 鞠鹏 摄', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日上午，习近平在苏州平江历史文化街区，同当地居民和游客亲切交流。新华社记者 燕雁 摄', '街边小广场上，曲乐悠扬，当地居民和游客正在欣赏苏州评弹表演。看到总书记来了，大家纷纷向总书记问好。习近平饶有兴致地同大家一起观看表演，他对大家说，昨天我看了工业园区，今天又看了传统文化街区，到处都是古迹、名胜、文化，生活在这里很有福气。苏州在传统与现代的结合上做得很好，不仅有历史文化传承，而且有高科技创新和高质量发展，代表未来的发展方向。他对当地负责同志讲，平江历史文化街区是传承弘扬中华优秀传统文化、加强社会主义精神文明建设的宝贵财富，要保护好、挖掘好、运用好，不仅要在物质形式上传承好，更要在心里传承好。', '街边小广场上，曲乐悠扬，当地居民和游客正在欣赏苏州评弹表演。看到总书记来了，大家纷纷向总书记问好。习近平饶有兴致地同大家一起观看表演，他对大家说，昨天我看了工业园区，今天又看了传统文化街区，到处都是古迹、名胜、文化，生活在这里很有福气。苏州在传统与现代的结合上做得很好，不仅有历史文化传承，而且有高科技创新和高质量发展，代表未来的发展方向。他对当地负责同志讲，平江历史文化街区是传承弘扬中华优秀传统文化、加强社会主义精神文明建设的宝贵财富，要保护好、挖掘好、运用好，不仅要在物质形式上传承好，更要在心里传承好', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察紫金山实验室。新华社记者 谢环驰 摄', '当天下午，习近平在南京市考察调研。他来到紫金山实验室，走进展厅、6G综合实验室，详细了解推进重大科技任务攻关等情况。习近平强调，现在信息技术飞速发展，颠覆性技术随时可能出现，要走求实扎实的创新路子，为实现高水平科技自立自强立下功勋。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察紫金山实验室时，同科研人员亲切交流。新华社记者 谢环驰 摄', '南瑞集团有限公司是国家电网公司下属的能源互联网领域高科技企业。习近平来到集团考察调研，听取南京市打造智能电网国家先进制造业集群总体情况介绍，察看企业自主可控技术产品展示。在企业智能制造生产区，习近平详细了解企业开展核心技术攻关，服务电网安全、电力保供和能源转型等情况。他指出，能源保障和安全事关国计民生，是须臾不可忽视的“国之大者”。要加快推动关键技术、核心产品迭代升级和新技术智慧赋能，提高国家能源安全和保障能力。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察南瑞集团有限公司。新华社记者 谢环驰 摄', '离开企业时，习近平勉励年轻研发人员说，大家意气风发、朝气蓬勃，要立志高远、脚踏实地，一步一步往前走，以十年磨一剑的韧劲，以“一辈子办成一件事”的执着，攻关高精尖技术，成就有价值的人生。', '7月5日至7日，中共中央总书记、国家主席、中央军委主席习近平在江苏考察。这是6日下午，习近平在南京市考察南瑞集团有限公司时，同年轻研发人员亲切交流。新华社记者 鞠鹏 摄', '7日上午，习近平听取了江苏省委和省政府工作汇报，对江苏各项工作取得的成绩给予肯定，希望江苏在科技创新上取得新突破，在强链补链延链上展现新作为，在建设中华民族现代文明上探索新经验，在推进社会治理现代化上实现新提升。', '习近平指出，中国式现代化关键在科技现代化。江苏要在科技创新上率先取得新突破，打造全国重要的产业科技创新高地，使高质量发展更多依靠创新驱动的内涵型增长。要强化企业科技创新主体地位，促进创新要素向企业集聚，不断提高科技成果转化和产业化水平。要深化科技体制改革和人才发展体制机制改革，形成支持全面创新的基础制度，多元化加大科技投入，加强知识产权法治保障，充分激发各类人才创新活力。', '习近平强调，要把坚守实体经济、构建现代化产业体系作为强省之要，巩固传统产业领先地位，加快打造具有国际竞争力的战略性新兴产业集群，推动数字经济与先进制造业、现代服务业深度融合，全面提升产业基础高级化和产业链现代化水平，加快构建以先进制造业为骨干的现代化产业体系。要畅通国内国际双循环，积极打通堵点、接通断点，不断创新吸引外资、扩大开放的新方式新举措，建设具有世界聚合力的双向开放枢纽，推动外贸创新发展，不断巩固和拓展国际市场。', '习近平指出，建设中华民族现代文明，是推进中国式现代化的必然要求，是社会主义精神文明建设的重要内容。江苏要加强优秀传统文化的保护传承和创新发展，积极参与建设长江和大运河两大国家文化公园。要大力发展现代科技、教育事业，全面提升人民群众的科学文化素质。要繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，扎实开展城乡精神文明创建，加强公民道德建设，推进书香社会建设，提高社会现代文明程度。', '习近平强调，江苏必须在保障和改善民生、推进社会治理现代化上走在前列。要加快健全社会保障体系，健全就业促进机制和就业公共服务体系，做好重点群体就业工作。要坚持和发展新时代“枫桥经验”、“浦江经验”，完善社会治理体系，健全城乡基层治理体系和乡村治理协同推进机制，推进社会治理数字化。要推进应急管理体系和能力现代化，深入开展安全生产专项整治，坚决防范重特大安全事故发生。', '习近平指出，全国即将进入“七下八上”防汛关键期，江河湖库将面临主汛期洪涝灾害的严重威胁。同时，一些地方旱情严重，森林火灾风险加大。各地区各部门要立足于防大汛、抗大旱、救大灾，坚持人民至上、生命至上，守土有责、守土负责、守土尽责，切实把保障人民生命财产安全放到第一位，强化灾害隐患巡查排险，提前做好各种应急准备，努力将各类损失降到最低。交通运输部门要加强重要基础设施安全防护，能源和电力部门尤其是央企要全力做好能源电力保供工作，确保经济社会运转不受大的影响。', '习近平强调，主题教育开展以来，各地区各部门各单位全面抓深抓实各项重点措施，取得较好效果。各级党组织要教育引导党员、干部落实“重实践”要求，坚持学思用贯通、知信行统一，匡正干的导向，增强干的动力，形成干的合力，在以学促干上取得实实在在的成效。一是树牢造福人民的政绩观，坚持以人民为中心的发展思想，坚持高质量发展，不搞贪大求洋、盲目蛮干、哗众取宠；坚持出实招求实效，不搞华而不实、投机取巧、数据造假；坚持打基础利长远，不搞急功近利、竭泽而渔、劳民伤财。二是鼓足干事创业的精气神，恪尽职守、担当作为，迎难而上、敢于斗争，严肃整治拈轻怕重、躺平甩锅、敷衍塞责、得过且过等消极现象，完善担当作为激励和保护机制。三是形成狠抓落实的好局面，不折不扣贯彻落实党中央决策部署，积极主动抓落实，聚合众力抓落实，以钉钉子精神抓落实，聚焦实际问题抓落实，在抓落实上取得新实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第六指导组负责同志参加汇报会。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第六指导组负责同志参加汇报会']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>65</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>市冰雪经济考察团赴齐齐哈尔学习交流工作经验</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-08-12</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100056/202208/97873.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['市冰雪经济考察团在市委宣传部副部长，市文广旅局党组书记、局长鄂艳娟带领下，赴齐齐哈尔学习交流冰雪经济发展先进经验。东安区政府副区长刘万年及市文广旅局、东安区政府相关部门参加考察。', '齐齐哈尔冰雪体育优势明显，冰雪装备制造业基础雄厚，冰雪旅游潜力巨大，与我市同为冰雪资源富集城市。本次考察活动的主要目的就是，学习借鉴齐齐哈尔在冰雪体育，冰雪装备制造上的成熟经验，搭建双方密切沟通，加强协作的崭新平台，努力形成资源共享、优势互补、良性互动、共赢发展的良好局面。', '考察团参观了齐齐哈尔黑龙国际冰雪装备有限公司、冰上中心及黑龙体育馆，观看了2022年“冰球季”赛事，并与齐齐哈尔市体育局、黑龙公司有关领导就项目共建、品牌营销和赛事推广等方面工作进行了深入交流。', '年“冰球季”赛事，并与齐齐哈尔市体育局、黑龙公司有关领导就项目共建、品牌营销和赛事推广等方面工作进行了深入交流。', '下一步，我市将以本次学习交流活动为契机，充分吸收运用齐齐哈尔经验，进一步提高我市冰雪经济发展工作的实效性和创新性。一是强化项目建设。坚持“冰雪搭台，经济唱戏”，大力开展招商引资活动，推动黑龙公司1250平米室内冰上运动主题乐园等项目尽快落实落地。二是推进赛事联动。借助齐齐哈尔“冰球之城”的号召力和影响力，主动联系引进高水平冰球赛事，促进我市冰雪运动普及推广，带动关联产业繁荣发展。三是培育新兴产业。依托我市“雪”资源优势，借鉴黑龙冰刀品牌打造经验，积极培育发展雪上运动项目装备制造产业，加速“冷资源”转化为“热经济”。四是加强旅游合作。利用两地在冰雪资源上的互补性和差异性，推出更多适合两地游客的旅游线路和旅游产品，实现两地市场互建、客源互送、信息共享，推动两地旅游合作共赢。', '下一步，我市将以本次学习交流活动为契机，充分吸收运用齐齐哈尔经验，进一步提高我市冰雪经济发展工作的实效性和创新性。一是强化项目建设。坚持', '平米室内冰上运动主题乐园等项目尽快落实落地。二是推进赛事联动。借助齐齐哈尔“冰球之城”的号召力和影响力，主动联系引进高水平冰球赛事，促进我市冰雪运动普及推广，带动关联产业繁荣发展。三是培育新兴产业。依托我市“雪”资源优势，借鉴黑龙冰刀品牌打造经验，积极培育发展雪上运动项目装备制造产业，加速“冷资源”转化为“热经济”。四是加强旅游合作。利用两地在冰雪资源上的互补性和差异性，推出更多适合两地游客的旅游线路和旅游产品，实现两地市场互建、客源互送、信息共享，推动两地旅游合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>65</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>办实事西安区委理论学习中心组开展考察产业项目暨党史学教活动</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021-09-16</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100185/202109/8408.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为深入开展党史学习教育，贯彻落实第四届全省旅发大会推进会议精神，9月11日至9月12日，西安区委理论学习中心组开展考察产业项目暨党史学教活动，中心组全体成员和各相关部门负责同志参加活动。 活动中，成员们实地参观考察了阳明区、穆棱市、绥芬河市、海林市、宁安市的12个文旅产业项目，对文旅产业建设经验进行再学习，再调研，对第四届全省旅发大会推进会议进行再落实。每到一处，大家都认真听取相关人员的经验介绍，围绕文化引领、商业支撑、旅游带动和发力“后旅发”时代与相关负责同志进行深入的探讨和交流。 在东北抗联密营教育基地和中共六大历史资料馆，区委理论学习中心组开展了一次生动的党史学习教育。成员们通过参观重要遗址遗迹，回顾东北抗联艰苦抗战、救亡图存、报效祖国的英雄业绩。在参观中共一大至七大巡展时，成员们共同回顾了新民主主义革命时期的光荣历史，从历史中汲取精神力量、经验智慧。在党旗下，共同举起右拳，重温入党誓词，用铮铮誓词宣示着对党的坚定信念和为党的事业奋斗终身的决心。', '活动中，成员们实地参观考察了阳明区、穆棱市、绥芬河市、海林市、宁安市的12个文旅产业项目，对文旅产业建设经验进行再学习，再调研，对第四届全省旅发大会推进会议进行再落实。每到一处，大家都认真听取相关人员的经验介绍，围绕文化引领、商业支撑、旅游带动和发力“后旅发”时代与相关负责同志进行深入的探讨和交流。', '在东北抗联密营教育基地和中共六大历史资料馆，区委理论学习中心组开展了一次生动的党史学习教育。成员们通过参观重要遗址遗迹，回顾东北抗联艰苦抗战、救亡图存、报效祖国的英雄业绩。在参观中共一大至七大巡展时，成员们共同回顾了新民主主义革命时期的光荣历史，从历史中汲取精神力量、经验智慧。在党旗下，共同举起右拳，重温入党誓词，用铮铮誓词宣示着对党的坚定信念和为党的事业奋斗终身的决心。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>65</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市长高岩率我市政企考察团赴长春和哈大齐学习考察对接</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2019-02-20</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100125/201902/c03_126651.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['春节长假刚过，2月13日至17日，市长高岩率牡丹江政企考察团赴长春、哈尔滨、大庆、齐齐哈尔四市开展学习考察和对接工作。我市政府在春节后立即开展 “市长带领企业找市场”的做法得到四市政府赞誉，赢得相关企业尊重。他们表示，将加快与我市对接，落实各项对接成果。', '本次考察是落实市委“三步走”目标、确保经济一年企稳的务实之举，考察准备充分、安排紧凑，搭建了合作平台，达成了合作意向，学到了工作经验，收获了深厚友谊。', '坚持政府搭台、企业唱戏，我市首控石油、桦林佳通、富通空调等14户企业先后与中国第一汽车集团公司、长安福特哈尔滨分公司、凯斯纽荷兰工业（哈尔滨）机械有限公司、大庆沃尔沃汽车制造有限公司、大庆油田公司、黑龙江龙华汽车有限公司、中车齐齐哈尔车辆有限公司进行洽谈对接。参加对接的各地市公司表示，将加大对牡丹江企业的支持力度，根据公司发展需要进一步增加对牡丹江企业配套产品的采购数量，并就落实后续工作建立了渠道。', '考察期间，我市考察团认真学习其他地市在加快智慧政务建设、推进“一门、一网、一次”改革等方面的经验，并就建立园区战略协作关系与长春市达成合作意向、就共同推进产业配套协作与哈尔滨市、大庆和齐齐哈尔市达成一致意见。', '下一步，我市将加快落实好本次学习考察和对接成果，跟踪推进本次参与对接企业的后续工作，引导相关企业适应市场变化，加大产品研发和升级换代力度，在巩固现有配套的基础上，进一步加大对二级、三级配套市场的攻克力度，不断扩大市场份额，并及时协调相关城市产业园区和工信部门，落实落靠各项合作意向，推动城市间合作向全方位拓展。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>65</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>牡丹江市公安局召开党委扩大会议学习贯彻习近平总书记在西藏考察时的重要讲话精神高忠远同志主持会议并作工作部署</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-08-08</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100104/202108/127909.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['牡丹江市公安局召开党委（扩大）会议学习贯彻习近平总书记在西藏考察时的重要讲话精神高忠远同志主持会议并作工作部署_治安管理_牡丹江市人民政府', '牡丹江市公安局召开党委（扩大）会议学习贯彻习近平总书记在西藏考察时的重要讲话精神高忠远同志主持会议并作工作部署', '8月7日上午，牡丹江市公安局召开2021年第12次党委（扩大）会议，学习贯彻习近平总书记在西藏考察时的重要讲话精神。副市长、公安局党委书记、局长高忠远主持会议并作工作部署。 高忠远同志指出，在庆祝中国共产党成立100周年大会召开后不久，习近平总书记专程到西藏，祝贺西藏和平解放70周年，看望各族干部群众并考察调研工作，充分体现了习近平总书记和党中央对西藏工作的重视支持和对西藏各族干部群众的关心关怀，充分彰显了西藏工作在党和国家事业全局中的战略地位和重要作用，具有重要的政治意义、历史意义和现实意义。 高忠远同志强调，全市公安机关要深刻认识习近平总书记到西藏考察的重大意义，深刻领会习近平总书记重要讲话的丰富内涵和精神实质，切实把思想和认识统一到习近平总书记重要讲话精神上来，胸怀两个大局、心系“国之大者”，充分发挥公安机关职能作用，坚决维护社会大局稳定。 高忠远同志要求，要巩固加强民族团结，坚持民族团结工作与公安工作相互融合，精准把控各类风险隐患，认真贯彻党的民族宗教政策，从严从细从实落实好各项工作措施，努力营造安全稳定的政治社会环境。要大力推进强边固防，坚持固边与兴边并重，加强边境基础设施建设，完善强边固防各项机制，充分发挥“党政军警民”护边作用，坚决守好边境地区这一维护国家安全的第一道防线。要着力加强疫情防控，保持社会面防控高等级勤务和情报指挥机制一级响应，全警动员、全员停休，按照市防指“一办十四组”分工要求，发挥公安机关职能作用，做好防控排查、流调溯源、隔离转运、交通管控、口岸防控、维护稳定、生产流通经营环节防控、生活必需品供应等重点工作。要持续加强旅发大会安保，按照既定部署，进一步完善安保方案，健全各项工作措施，在条件允许情况下适时开展实战演练；各部门要发挥牵头作用，积极做好指导协调工作；要严格落实责任分工，确保各项措施落实到位。', '8月7日上午，牡丹江市公安局召开2021年第12次党委（扩大）会议，学习贯彻习近平总书记在西藏考察时的重要讲话精神。副市长、公安局党委书记、局长高忠远主持会议并作工作部署。', '高忠远同志指出，在庆祝中国共产党成立100周年大会召开后不久，习近平总书记专程到西藏，祝贺西藏和平解放70周年，看望各族干部群众并考察调研工作，充分体现了习近平总书记和党中央对西藏工作的重视支持和对西藏各族干部群众的关心关怀，充分彰显了西藏工作在党和国家事业全局中的战略地位和重要作用，具有重要的政治意义、历史意义和现实意义。', '高忠远同志强调，全市公安机关要深刻认识习近平总书记到西藏考察的重大意义，深刻领会习近平总书记重要讲话的丰富内涵和精神实质，切实把思想和认识统一到习近平总书记重要讲话精神上来，胸怀两个大局、心系“国之大者”，充分发挥公安机关职能作用，坚决维护社会大局稳定。', '高忠远同志要求，要巩固加强民族团结，坚持民族团结工作与公安工作相互融合，精准把控各类风险隐患，认真贯彻党的民族宗教政策，从严从细从实落实好各项工作措施，努力营造安全稳定的政治社会环境。要大力推进强边固防，坚持固边与兴边并重，加强边境基础设施建设，完善强边固防各项机制，充分发挥“党政军警民”护边作用，坚决守好边境地区这一维护国家安全的第一道防线。要着力加强疫情防控，保持社会面防控高等级勤务和情报指挥机制一级响应，全警动员、全员停休，按照市防指“一办十四组”分工要求，发挥公安机关职能作用，做好防控排查、流调溯源、隔离转运、交通管控、口岸防控、维护稳定、生产流通经营环节防控、生活必需品供应等重点工作。要持续加强旅发大会安保，按照既定部署，进一步完善安保方案，健全各项工作措施，在条件允许情况下适时开展实战演练；各部门要发挥牵头作用，积极做好指导协调工作；要严格落实责任分工，确保各项措施落实到位。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>65</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>团市委市青联青企协赴南方学习考察招商</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2006-12-08</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100125/200612/c03_125824.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['南北青年牵手，共谋合作双赢。日前（10月30--11月11日），团市委、市青联、青企协和市对俄经济技术开发区管委会相关人员赴上海、南京、杭州、温州、广州、深圳等地，进行了历时半个月的学习考察和招商引资活动，为牡丹江与南方各地人才交流、项目对接、商贸洽谈、兴业投资拓展合作空间。', '学习招商考察团本着加强沟通、密切联系、增进友谊的目的，与六地团青组织、工商企业、协会组织等各界人士进行了广泛深入的交流和探讨。每到一处，招商考察团都召开牡丹江市情和开发区招商引资项目推介会，与相关企业进行广泛对接和交流。我市对俄区位优势、旅游资源和对俄经济技术开发区、青年经济技术园区等引起了各地团青组织和青年企业家的浓厚兴趣，纷纷表示将保持经常性的联系和沟通，及时交流信息和经验，相互推介，以促进双方友好关系的进一步发展。', '为建立联系交流长效机制，考察团还与南京、杭州、温州和深圳等市青联和青企协签订合作协议，缔结为友好组织，服务于我市经济建设。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>65</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>牡丹江市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>澳大利亚大学生来绥阳林业局考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2016-01-28</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.mdj.gov.cn/mdjsrmzf/c100012/201601/132435.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['新华社北京7月5日电 国务院总理李强7月5日主持召开国务院常务会议，研究部署推进数字经济高质量发展有关工作，审议通过《全链条支持创新药发展实施方案》，讨论进一步推动西部大开发工作，研究支持天津滨海新区高质量发展的政策措施，听取关于2023年度中央预算执行和其他财政收支审计查出...[查看详情]', '7月10日下午，牡丹江市人民政府食品安全委员会全体（扩大）会议召开。市委副书记、市长、市政府食安委主任张国军出席会议并讲话。他强调，要深入贯彻习近平总书记关于食品安全工作重要讲话重要指示精神，认真落实党中央国务院、省委省政府决策部署，按照市委工作要求，坚持以人民为中心的发...[查看详情]', '7月8日，全市领导干部警示教育会在市党政会议中心召开，传达习近平总书记关于全面加强党的纪律建设的重要论述和全省领导干部警示教育会精神。市委副书记、市长张国军主持会议并讲话。张国军强调，要深入学习贯彻习近平总书记关于全面加强党的纪律建设的重要论述，认真落实党中央和省委关于...[查看详情]', '图解：牡丹江市商务局关于《关于做好2024年第一批中央外经贸发展专项资金管理工作的通知》（征求意见稿）的公示', '【图解】政策解读：牡丹江市关于推进家电以旧换新促进绿色智能家电消费补贴方案的政策解读', '新版牡丹江市人民政府网站目前为试运行阶段，网站部分功能正在持续优化中，由此给您带来的不便敬请谅解。']</t>
         </is>
